--- a/data/panelapp/au/Microcephaly.xlsx
+++ b/data/panelapp/au/Microcephaly.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E259"/>
+  <dimension ref="A1:F261"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>panel</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>time_taken</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -479,6 +484,11 @@
           <t>Microcephaly</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685269</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -504,6 +514,11 @@
           <t>Microcephaly</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685280</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -529,6 +544,11 @@
           <t>Microcephaly</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685284</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -554,6 +574,11 @@
           <t>Microcephaly</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685287</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -579,6 +604,11 @@
           <t>Microcephaly</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685289</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -604,6 +634,11 @@
           <t>Microcephaly</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685292</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -629,6 +664,11 @@
           <t>Microcephaly</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685295</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -654,6 +694,11 @@
           <t>Microcephaly</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685297</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -679,6 +724,11 @@
           <t>Microcephaly</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685300</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -704,6 +754,11 @@
           <t>Microcephaly</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685303</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -729,6 +784,11 @@
           <t>Microcephaly</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685305</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -754,6 +814,11 @@
           <t>Microcephaly</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685308</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -779,6 +844,11 @@
           <t>Microcephaly</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685310</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -804,6 +874,11 @@
           <t>Microcephaly</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685313</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -829,6 +904,11 @@
           <t>Microcephaly</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685315</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -854,6 +934,11 @@
           <t>Microcephaly</t>
         </is>
       </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685318</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -879,6 +964,11 @@
           <t>Microcephaly</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685321</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -904,6 +994,11 @@
           <t>Microcephaly</t>
         </is>
       </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685323</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -929,6 +1024,11 @@
           <t>Microcephaly</t>
         </is>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685326</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -954,6 +1054,11 @@
           <t>Microcephaly</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685328</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -979,6 +1084,11 @@
           <t>Microcephaly</t>
         </is>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685331</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1004,6 +1114,11 @@
           <t>Microcephaly</t>
         </is>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685334</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1029,6 +1144,11 @@
           <t>Microcephaly</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685336</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1054,6 +1174,11 @@
           <t>Microcephaly</t>
         </is>
       </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685338</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1079,6 +1204,11 @@
           <t>Microcephaly</t>
         </is>
       </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685341</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1104,6 +1234,11 @@
           <t>Microcephaly</t>
         </is>
       </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685344</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1129,6 +1264,11 @@
           <t>Microcephaly</t>
         </is>
       </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685347</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1154,6 +1294,11 @@
           <t>Microcephaly</t>
         </is>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685349</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1179,6 +1324,11 @@
           <t>Microcephaly</t>
         </is>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685352</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1204,6 +1354,11 @@
           <t>Microcephaly</t>
         </is>
       </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685354</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1229,6 +1384,11 @@
           <t>Microcephaly</t>
         </is>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685357</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1254,6 +1414,11 @@
           <t>Microcephaly</t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685360</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1279,6 +1444,11 @@
           <t>Microcephaly</t>
         </is>
       </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685362</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1304,6 +1474,11 @@
           <t>Microcephaly</t>
         </is>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685365</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1329,6 +1504,11 @@
           <t>Microcephaly</t>
         </is>
       </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685368</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1354,6 +1534,11 @@
           <t>Microcephaly</t>
         </is>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685370</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1379,6 +1564,11 @@
           <t>Microcephaly</t>
         </is>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685373</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1404,6 +1594,11 @@
           <t>Microcephaly</t>
         </is>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685375</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1429,6 +1624,11 @@
           <t>Microcephaly</t>
         </is>
       </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685378</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1454,6 +1654,11 @@
           <t>Microcephaly</t>
         </is>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685381</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1479,6 +1684,11 @@
           <t>Microcephaly</t>
         </is>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685384</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1504,6 +1714,11 @@
           <t>Microcephaly</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685387</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1529,6 +1744,11 @@
           <t>Microcephaly</t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685389</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1554,6 +1774,11 @@
           <t>Microcephaly</t>
         </is>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685392</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1579,6 +1804,11 @@
           <t>Microcephaly</t>
         </is>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685394</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1604,6 +1834,11 @@
           <t>Microcephaly</t>
         </is>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685397</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1629,6 +1864,11 @@
           <t>Microcephaly</t>
         </is>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685399</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1654,6 +1894,11 @@
           <t>Microcephaly</t>
         </is>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685402</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1679,6 +1924,11 @@
           <t>Microcephaly</t>
         </is>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685405</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1704,6 +1954,11 @@
           <t>Microcephaly</t>
         </is>
       </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685407</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1729,6 +1984,11 @@
           <t>Microcephaly</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685410</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1754,6 +2014,11 @@
           <t>Microcephaly</t>
         </is>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685412</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1779,6 +2044,11 @@
           <t>Microcephaly</t>
         </is>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685415</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1786,12 +2056,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>EIF5A</t>
+          <t>EIF3F</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>eukaryotic translation initiation factor 5A</t>
+          <t>eukaryotic translation initiation factor 3 subunit F</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1802,6 +2072,11 @@
       <c r="E55" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685418</t>
         </is>
       </c>
     </row>
@@ -1811,12 +2086,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>ERCC4</t>
+          <t>EIF5A</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>ERCC excision repair 4, endonuclease catalytic subunit</t>
+          <t>eukaryotic translation initiation factor 5A</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1827,6 +2102,11 @@
       <c r="E56" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685421</t>
         </is>
       </c>
     </row>
@@ -1836,12 +2116,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>ERCC6</t>
+          <t>ERCC4</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>ERCC excision repair 6, chromatin remodeling factor</t>
+          <t>ERCC excision repair 4, endonuclease catalytic subunit</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1852,6 +2132,11 @@
       <c r="E57" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685423</t>
         </is>
       </c>
     </row>
@@ -1861,12 +2146,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>ERCC8</t>
+          <t>ERCC6</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>ERCC excision repair 8, CSA ubiquitin ligase complex subunit</t>
+          <t>ERCC excision repair 6, chromatin remodeling factor</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1877,6 +2162,11 @@
       <c r="E58" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685426</t>
         </is>
       </c>
     </row>
@@ -1886,12 +2176,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>EXOC7</t>
+          <t>ERCC8</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>exocyst complex component 7</t>
+          <t>ERCC excision repair 8, CSA ubiquitin ligase complex subunit</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1902,6 +2192,11 @@
       <c r="E59" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685429</t>
         </is>
       </c>
     </row>
@@ -1911,12 +2206,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>FANCA</t>
+          <t>EXOC7</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Fanconi anemia complementation group A</t>
+          <t>exocyst complex component 7</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1927,6 +2222,11 @@
       <c r="E60" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685431</t>
         </is>
       </c>
     </row>
@@ -1936,12 +2236,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>FANCB</t>
+          <t>FANCA</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Fanconi anemia complementation group B</t>
+          <t>Fanconi anemia complementation group A</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -1952,6 +2252,11 @@
       <c r="E61" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685434</t>
         </is>
       </c>
     </row>
@@ -1961,12 +2266,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>FANCC</t>
+          <t>FANCB</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Fanconi anemia complementation group C</t>
+          <t>Fanconi anemia complementation group B</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -1977,6 +2282,11 @@
       <c r="E62" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685436</t>
         </is>
       </c>
     </row>
@@ -1986,12 +2296,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>FANCD2</t>
+          <t>FANCC</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Fanconi anemia complementation group D2</t>
+          <t>Fanconi anemia complementation group C</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2002,6 +2312,11 @@
       <c r="E63" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685439</t>
         </is>
       </c>
     </row>
@@ -2011,12 +2326,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>FANCE</t>
+          <t>FANCD2</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Fanconi anemia complementation group E</t>
+          <t>Fanconi anemia complementation group D2</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2027,6 +2342,11 @@
       <c r="E64" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685442</t>
         </is>
       </c>
     </row>
@@ -2036,12 +2356,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>FANCF</t>
+          <t>FANCE</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Fanconi anemia complementation group F</t>
+          <t>Fanconi anemia complementation group E</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2052,6 +2372,11 @@
       <c r="E65" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685444</t>
         </is>
       </c>
     </row>
@@ -2061,12 +2386,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>FANCG</t>
+          <t>FANCF</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Fanconi anemia complementation group G</t>
+          <t>Fanconi anemia complementation group F</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2077,6 +2402,11 @@
       <c r="E66" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685448</t>
         </is>
       </c>
     </row>
@@ -2086,12 +2416,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>FANCI</t>
+          <t>FANCG</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Fanconi anemia complementation group I</t>
+          <t>Fanconi anemia complementation group G</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2102,6 +2432,11 @@
       <c r="E67" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685451</t>
         </is>
       </c>
     </row>
@@ -2111,12 +2446,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>FANCL</t>
+          <t>FANCI</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Fanconi anemia complementation group L</t>
+          <t>Fanconi anemia complementation group I</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2127,6 +2462,11 @@
       <c r="E68" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685454</t>
         </is>
       </c>
     </row>
@@ -2136,12 +2476,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>FBRSL1</t>
+          <t>FANCL</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>fibrosin like 1</t>
+          <t>Fanconi anemia complementation group L</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2152,6 +2492,11 @@
       <c r="E69" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685456</t>
         </is>
       </c>
     </row>
@@ -2161,12 +2506,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>FOXG1</t>
+          <t>FBRSL1</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>forkhead box G1</t>
+          <t>fibrosin like 1</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2177,6 +2522,11 @@
       <c r="E70" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685459</t>
         </is>
       </c>
     </row>
@@ -2186,12 +2536,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>GMNN</t>
+          <t>FOXG1</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>geminin, DNA replication inhibitor</t>
+          <t>forkhead box G1</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2202,6 +2552,11 @@
       <c r="E71" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685461</t>
         </is>
       </c>
     </row>
@@ -2211,12 +2566,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>GOLGA2</t>
+          <t>GMNN</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>golgin A2</t>
+          <t>geminin, DNA replication inhibitor</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2227,6 +2582,11 @@
       <c r="E72" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685464</t>
         </is>
       </c>
     </row>
@@ -2236,12 +2596,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>GON7</t>
+          <t>GOLGA2</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>GON7, KEOPS complex subunit</t>
+          <t>golgin A2</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2252,6 +2612,11 @@
       <c r="E73" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685466</t>
         </is>
       </c>
     </row>
@@ -2261,12 +2626,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>GPT2</t>
+          <t>GON7</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>glutamic--pyruvic transaminase 2</t>
+          <t>GON7, KEOPS complex subunit</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2277,6 +2642,11 @@
       <c r="E74" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685469</t>
         </is>
       </c>
     </row>
@@ -2286,12 +2656,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>GRM7</t>
+          <t>GPT2</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>glutamate metabotropic receptor 7</t>
+          <t>glutamic--pyruvic transaminase 2</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2302,6 +2672,11 @@
       <c r="E75" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685472</t>
         </is>
       </c>
     </row>
@@ -2311,12 +2686,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>GTPBP2</t>
+          <t>GRM7</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>GTP binding protein 2</t>
+          <t>glutamate metabotropic receptor 7</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2327,6 +2702,11 @@
       <c r="E76" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685474</t>
         </is>
       </c>
     </row>
@@ -2336,12 +2716,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>HDAC8</t>
+          <t>GTPBP2</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>histone deacetylase 8</t>
+          <t>GTP binding protein 2</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2352,6 +2732,11 @@
       <c r="E77" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685477</t>
         </is>
       </c>
     </row>
@@ -2361,12 +2746,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>HIST1H4C</t>
+          <t>HDAC8</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>histone cluster 1 H4 family member c</t>
+          <t>histone deacetylase 8</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2377,6 +2762,11 @@
       <c r="E78" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685481</t>
         </is>
       </c>
     </row>
@@ -2386,12 +2776,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>HMGB1</t>
+          <t>HIST1H4C</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>high mobility group box 1</t>
+          <t>histone cluster 1 H4 family member c</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2402,6 +2792,11 @@
       <c r="E79" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685485</t>
         </is>
       </c>
     </row>
@@ -2411,12 +2806,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>IARS</t>
+          <t>HMGB1</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>isoleucyl-tRNA synthetase</t>
+          <t>high mobility group box 1</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2427,6 +2822,11 @@
       <c r="E80" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685488</t>
         </is>
       </c>
     </row>
@@ -2436,12 +2836,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>IER3IP1</t>
+          <t>IARS</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>immediate early response 3 interacting protein 1</t>
+          <t>isoleucyl-tRNA synthetase</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2452,6 +2852,11 @@
       <c r="E81" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685491</t>
         </is>
       </c>
     </row>
@@ -2461,12 +2866,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>IGF1</t>
+          <t>IER3IP1</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>insulin like growth factor 1</t>
+          <t>immediate early response 3 interacting protein 1</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2477,6 +2882,11 @@
       <c r="E82" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685493</t>
         </is>
       </c>
     </row>
@@ -2486,12 +2896,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>IGF1R</t>
+          <t>IGF1</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>insulin like growth factor 1 receptor</t>
+          <t>insulin like growth factor 1</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2502,6 +2912,11 @@
       <c r="E83" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685496</t>
         </is>
       </c>
     </row>
@@ -2511,12 +2926,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>KCNJ6</t>
+          <t>IGF1R</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>potassium voltage-gated channel subfamily J member 6</t>
+          <t>insulin like growth factor 1 receptor</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2527,6 +2942,11 @@
       <c r="E84" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685498</t>
         </is>
       </c>
     </row>
@@ -2536,12 +2956,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>KIF11</t>
+          <t>KCNJ6</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>kinesin family member 11</t>
+          <t>potassium voltage-gated channel subfamily J member 6</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2552,6 +2972,11 @@
       <c r="E85" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685501</t>
         </is>
       </c>
     </row>
@@ -2561,12 +2986,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>KIF14</t>
+          <t>KIF11</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>kinesin family member 14</t>
+          <t>kinesin family member 11</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2577,6 +3002,11 @@
       <c r="E86" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685503</t>
         </is>
       </c>
     </row>
@@ -2586,12 +3016,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>KIF1BP</t>
+          <t>KIF14</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>KIF1 binding protein</t>
+          <t>kinesin family member 14</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2602,6 +3032,11 @@
       <c r="E87" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685506</t>
         </is>
       </c>
     </row>
@@ -2611,12 +3046,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>KIF21B</t>
+          <t>KIF1BP</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>kinesin family member 21B</t>
+          <t>KIF1 binding protein</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2627,6 +3062,11 @@
       <c r="E88" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685509</t>
         </is>
       </c>
     </row>
@@ -2636,12 +3076,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>KIF2A</t>
+          <t>KIF21B</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>kinesin family member 2A</t>
+          <t>kinesin family member 21B</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2652,6 +3092,11 @@
       <c r="E89" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685511</t>
         </is>
       </c>
     </row>
@@ -2661,12 +3106,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>KMT2E</t>
+          <t>KIF2A</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>lysine methyltransferase 2E</t>
+          <t>kinesin family member 2A</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2677,6 +3122,11 @@
       <c r="E90" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685514</t>
         </is>
       </c>
     </row>
@@ -2686,12 +3136,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>KNL1</t>
+          <t>KMT2E</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>kinetochore scaffold 1</t>
+          <t>lysine methyltransferase 2E</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2702,6 +3152,11 @@
       <c r="E91" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685516</t>
         </is>
       </c>
     </row>
@@ -2711,12 +3166,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>LAGE3</t>
+          <t>KNL1</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>L antigen family member 3</t>
+          <t>kinetochore scaffold 1</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2727,6 +3182,11 @@
       <c r="E92" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685519</t>
         </is>
       </c>
     </row>
@@ -2736,12 +3196,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>LARP7</t>
+          <t>LAGE3</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>La ribonucleoprotein domain family member 7</t>
+          <t>L antigen family member 3</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2752,6 +3212,11 @@
       <c r="E93" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685521</t>
         </is>
       </c>
     </row>
@@ -2761,12 +3226,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>LIG4</t>
+          <t>LARP7</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>DNA ligase 4</t>
+          <t>La ribonucleoprotein domain family member 7</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2777,6 +3242,11 @@
       <c r="E94" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685525</t>
         </is>
       </c>
     </row>
@@ -2786,12 +3256,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>LMNB1</t>
+          <t>LIG4</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>lamin B1</t>
+          <t>DNA ligase 4</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2802,6 +3272,11 @@
       <c r="E95" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685528</t>
         </is>
       </c>
     </row>
@@ -2811,12 +3286,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>LMNB2</t>
+          <t>LMNB1</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>lamin B2</t>
+          <t>lamin B1</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2827,6 +3302,11 @@
       <c r="E96" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685531</t>
         </is>
       </c>
     </row>
@@ -2836,12 +3316,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>MCPH1</t>
+          <t>LMNB2</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>microcephalin 1</t>
+          <t>lamin B2</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2852,6 +3332,11 @@
       <c r="E97" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685534</t>
         </is>
       </c>
     </row>
@@ -2861,12 +3346,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>MECP2</t>
+          <t>MCPH1</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>methyl-CpG binding protein 2</t>
+          <t>microcephalin 1</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -2877,6 +3362,11 @@
       <c r="E98" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685536</t>
         </is>
       </c>
     </row>
@@ -2886,12 +3376,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>MED17</t>
+          <t>MECP2</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>mediator complex subunit 17</t>
+          <t>methyl-CpG binding protein 2</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -2902,6 +3392,11 @@
       <c r="E99" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685539</t>
         </is>
       </c>
     </row>
@@ -2911,12 +3406,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>MFSD2A</t>
+          <t>MED17</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>major facilitator superfamily domain containing 2A</t>
+          <t>mediator complex subunit 17</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -2927,6 +3422,11 @@
       <c r="E100" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685542</t>
         </is>
       </c>
     </row>
@@ -2936,12 +3436,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>MINPP1</t>
+          <t>MFSD2A</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>multiple inositol-polyphosphate phosphatase 1</t>
+          <t>major facilitator superfamily domain containing 2A</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -2952,6 +3452,11 @@
       <c r="E101" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685544</t>
         </is>
       </c>
     </row>
@@ -2961,12 +3466,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>MORC2</t>
+          <t>MINPP1</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>MORC family CW-type zinc finger 2</t>
+          <t>multiple inositol-polyphosphate phosphatase 1</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -2977,6 +3482,11 @@
       <c r="E102" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685546</t>
         </is>
       </c>
     </row>
@@ -2986,12 +3496,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>MSMO1</t>
+          <t>MORC2</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>methylsterol monooxygenase 1</t>
+          <t>MORC family CW-type zinc finger 2</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3002,6 +3512,11 @@
       <c r="E103" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685549</t>
         </is>
       </c>
     </row>
@@ -3011,12 +3526,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>MYCN</t>
+          <t>MSMO1</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>MYCN proto-oncogene, bHLH transcription factor</t>
+          <t>methylsterol monooxygenase 1</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3027,6 +3542,11 @@
       <c r="E104" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685552</t>
         </is>
       </c>
     </row>
@@ -3036,12 +3556,12 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>NBN</t>
+          <t>MYCN</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>nibrin</t>
+          <t>MYCN proto-oncogene, bHLH transcription factor</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3052,6 +3572,11 @@
       <c r="E105" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685555</t>
         </is>
       </c>
     </row>
@@ -3061,12 +3586,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>NCAPD2</t>
+          <t>NBN</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>non-SMC condensin I complex subunit D2</t>
+          <t>nibrin</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3077,6 +3602,11 @@
       <c r="E106" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685558</t>
         </is>
       </c>
     </row>
@@ -3086,12 +3616,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>NDE1</t>
+          <t>NCAPD2</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>nudE neurodevelopment protein 1</t>
+          <t>non-SMC condensin I complex subunit D2</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3102,6 +3632,11 @@
       <c r="E107" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685560</t>
         </is>
       </c>
     </row>
@@ -3111,12 +3646,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>NHEJ1</t>
+          <t>NDE1</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>non-homologous end joining factor 1</t>
+          <t>nudE neurodevelopment protein 1</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3127,6 +3662,11 @@
       <c r="E108" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685563</t>
         </is>
       </c>
     </row>
@@ -3136,12 +3676,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>NIPBL</t>
+          <t>NHEJ1</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>NIPBL, cohesin loading factor</t>
+          <t>non-homologous end joining factor 1</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3152,6 +3692,11 @@
       <c r="E109" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685566</t>
         </is>
       </c>
     </row>
@@ -3161,12 +3706,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>NSD2</t>
+          <t>NIPBL</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>nuclear receptor binding SET domain protein 2</t>
+          <t>NIPBL, cohesin loading factor</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3177,6 +3722,11 @@
       <c r="E110" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685571</t>
         </is>
       </c>
     </row>
@@ -3186,12 +3736,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>NUP107</t>
+          <t>NSD2</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>nucleoporin 107</t>
+          <t>nuclear receptor binding SET domain protein 2</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3202,6 +3752,11 @@
       <c r="E111" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685574</t>
         </is>
       </c>
     </row>
@@ -3211,12 +3766,12 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>NUP188</t>
+          <t>NUP107</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>nucleoporin 188</t>
+          <t>nucleoporin 107</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -3227,6 +3782,11 @@
       <c r="E112" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685577</t>
         </is>
       </c>
     </row>
@@ -3236,12 +3796,12 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>ORC1</t>
+          <t>NUP188</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>origin recognition complex subunit 1</t>
+          <t>nucleoporin 188</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -3252,6 +3812,11 @@
       <c r="E113" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685579</t>
         </is>
       </c>
     </row>
@@ -3261,12 +3826,12 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>ORC4</t>
+          <t>ORC1</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>origin recognition complex subunit 4</t>
+          <t>origin recognition complex subunit 1</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -3277,6 +3842,11 @@
       <c r="E114" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685582</t>
         </is>
       </c>
     </row>
@@ -3286,12 +3856,12 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>ORC6</t>
+          <t>ORC4</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>origin recognition complex subunit 6</t>
+          <t>origin recognition complex subunit 4</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -3302,6 +3872,11 @@
       <c r="E115" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685585</t>
         </is>
       </c>
     </row>
@@ -3311,12 +3886,12 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>OSGEP</t>
+          <t>ORC6</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>O-sialoglycoprotein endopeptidase</t>
+          <t>origin recognition complex subunit 6</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3327,6 +3902,11 @@
       <c r="E116" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685587</t>
         </is>
       </c>
     </row>
@@ -3336,12 +3916,12 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>PAFAH1B1</t>
+          <t>OSGEP</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>platelet activating factor acetylhydrolase 1b regulatory subunit 1</t>
+          <t>O-sialoglycoprotein endopeptidase</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3352,6 +3932,11 @@
       <c r="E117" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685590</t>
         </is>
       </c>
     </row>
@@ -3361,12 +3946,12 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>PARP6</t>
+          <t>PAFAH1B1</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>poly(ADP-ribose) polymerase family member 6</t>
+          <t>platelet activating factor acetylhydrolase 1b regulatory subunit 1</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3377,6 +3962,11 @@
       <c r="E118" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685592</t>
         </is>
       </c>
     </row>
@@ -3386,12 +3976,12 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>PCDH12</t>
+          <t>PARP6</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>protocadherin 12</t>
+          <t>poly(ADP-ribose) polymerase family member 6</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3402,6 +3992,11 @@
       <c r="E119" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685595</t>
         </is>
       </c>
     </row>
@@ -3411,12 +4006,12 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>PCNT</t>
+          <t>PCDH12</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>pericentrin</t>
+          <t>protocadherin 12</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3427,6 +4022,11 @@
       <c r="E120" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685598</t>
         </is>
       </c>
     </row>
@@ -3436,12 +4036,12 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>PDHA1</t>
+          <t>PCNT</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>pyruvate dehydrogenase E1 alpha 1 subunit</t>
+          <t>pericentrin</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3452,6 +4052,11 @@
       <c r="E121" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685600</t>
         </is>
       </c>
     </row>
@@ -3461,12 +4066,12 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>PIGH</t>
+          <t>PDHA1</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>phosphatidylinositol glycan anchor biosynthesis class H</t>
+          <t>pyruvate dehydrogenase E1 alpha 1 subunit</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3477,6 +4082,11 @@
       <c r="E122" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685603</t>
         </is>
       </c>
     </row>
@@ -3486,12 +4096,12 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>PLK4</t>
+          <t>PIGH</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>polo like kinase 4</t>
+          <t>phosphatidylinositol glycan anchor biosynthesis class H</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3502,6 +4112,11 @@
       <c r="E123" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685606</t>
         </is>
       </c>
     </row>
@@ -3511,12 +4126,12 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>PNKP</t>
+          <t>PLK4</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>polynucleotide kinase 3'-phosphatase</t>
+          <t>polo like kinase 4</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3527,6 +4142,11 @@
       <c r="E124" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685608</t>
         </is>
       </c>
     </row>
@@ -3536,12 +4156,12 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>POC1A</t>
+          <t>PNKP</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>POC1 centriolar protein A</t>
+          <t>polynucleotide kinase 3'-phosphatase</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -3552,6 +4172,11 @@
       <c r="E125" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685611</t>
         </is>
       </c>
     </row>
@@ -3561,12 +4186,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>POGZ</t>
+          <t>POC1A</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>pogo transposable element derived with ZNF domain</t>
+          <t>POC1 centriolar protein A</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -3577,6 +4202,11 @@
       <c r="E126" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685613</t>
         </is>
       </c>
     </row>
@@ -3586,12 +4216,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>POLE</t>
+          <t>POGZ</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>DNA polymerase epsilon, catalytic subunit</t>
+          <t>pogo transposable element derived with ZNF domain</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -3602,6 +4232,11 @@
       <c r="E127" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685616</t>
         </is>
       </c>
     </row>
@@ -3611,12 +4246,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>POMT1</t>
+          <t>POLE</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>protein O-mannosyltransferase 1</t>
+          <t>DNA polymerase epsilon, catalytic subunit</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -3627,6 +4262,11 @@
       <c r="E128" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685619</t>
         </is>
       </c>
     </row>
@@ -3636,12 +4276,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>PPIL1</t>
+          <t>POMT1</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>peptidylprolyl isomerase like 1</t>
+          <t>protein O-mannosyltransferase 1</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -3652,6 +4292,11 @@
       <c r="E129" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685621</t>
         </is>
       </c>
     </row>
@@ -3661,12 +4306,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>PPP2R1A</t>
+          <t>PPIL1</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>protein phosphatase 2 scaffold subunit Aalpha</t>
+          <t>peptidylprolyl isomerase like 1</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -3677,6 +4322,11 @@
       <c r="E130" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685626</t>
         </is>
       </c>
     </row>
@@ -3686,12 +4336,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>PQBP1</t>
+          <t>PPP2R1A</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>polyglutamine binding protein 1</t>
+          <t>protein phosphatase 2 scaffold subunit Aalpha</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -3702,6 +4352,11 @@
       <c r="E131" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685629</t>
         </is>
       </c>
     </row>
@@ -3711,12 +4366,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>PRUNE1</t>
+          <t>PQBP1</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>prune exopolyphosphatase 1</t>
+          <t>polyglutamine binding protein 1</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -3727,6 +4382,11 @@
       <c r="E132" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685632</t>
         </is>
       </c>
     </row>
@@ -3736,12 +4396,12 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>PTPN23</t>
+          <t>PRUNE1</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>protein tyrosine phosphatase, non-receptor type 23</t>
+          <t>prune exopolyphosphatase 1</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -3752,6 +4412,11 @@
       <c r="E133" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685635</t>
         </is>
       </c>
     </row>
@@ -3761,12 +4426,12 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>PUF60</t>
+          <t>PTPN23</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>poly(U) binding splicing factor 60</t>
+          <t>protein tyrosine phosphatase, non-receptor type 23</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -3777,6 +4442,11 @@
       <c r="E134" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685637</t>
         </is>
       </c>
     </row>
@@ -3786,12 +4456,12 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>PUS7</t>
+          <t>PUF60</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>pseudouridylate synthase 7 (putative)</t>
+          <t>poly(U) binding splicing factor 60</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -3802,6 +4472,11 @@
       <c r="E135" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685640</t>
         </is>
       </c>
     </row>
@@ -3811,12 +4486,12 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>RAB18</t>
+          <t>PUS7</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>RAB18, member RAS oncogene family</t>
+          <t>pseudouridylate synthase 7 (putative)</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -3827,6 +4502,11 @@
       <c r="E136" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685643</t>
         </is>
       </c>
     </row>
@@ -3836,12 +4516,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>RAB3GAP1</t>
+          <t>RAB18</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>RAB3 GTPase activating protein catalytic subunit 1</t>
+          <t>RAB18, member RAS oncogene family</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -3852,6 +4532,11 @@
       <c r="E137" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685645</t>
         </is>
       </c>
     </row>
@@ -3861,12 +4546,12 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>RAB3GAP2</t>
+          <t>RAB3GAP1</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>RAB3 GTPase activating non-catalytic protein subunit 2</t>
+          <t>RAB3 GTPase activating protein catalytic subunit 1</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -3877,6 +4562,11 @@
       <c r="E138" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685648</t>
         </is>
       </c>
     </row>
@@ -3886,12 +4576,12 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>RAD21</t>
+          <t>RAB3GAP2</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>RAD21 cohesin complex component</t>
+          <t>RAB3 GTPase activating non-catalytic protein subunit 2</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -3902,6 +4592,11 @@
       <c r="E139" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685651</t>
         </is>
       </c>
     </row>
@@ -3911,12 +4606,12 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>RARS2</t>
+          <t>RAD21</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>arginyl-tRNA synthetase 2, mitochondrial</t>
+          <t>RAD21 cohesin complex component</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -3927,6 +4622,11 @@
       <c r="E140" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685653</t>
         </is>
       </c>
     </row>
@@ -3936,12 +4636,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>RBBP8</t>
+          <t>RARS2</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>RB binding protein 8, endonuclease</t>
+          <t>arginyl-tRNA synthetase 2, mitochondrial</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -3952,6 +4652,11 @@
       <c r="E141" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685656</t>
         </is>
       </c>
     </row>
@@ -3961,12 +4666,12 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>RNU4ATAC</t>
+          <t>RBBP8</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>RNA, U4atac small nuclear (U12-dependent splicing)</t>
+          <t>RB binding protein 8, endonuclease</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -3977,6 +4682,11 @@
       <c r="E142" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685659</t>
         </is>
       </c>
     </row>
@@ -3986,12 +4696,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>RPL10</t>
+          <t>RNF113A</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>ribosomal protein L10</t>
+          <t>ring finger protein 113A</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -4002,6 +4712,11 @@
       <c r="E143" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685661</t>
         </is>
       </c>
     </row>
@@ -4011,12 +4726,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>RTTN</t>
+          <t>RNU4ATAC</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>rotatin</t>
+          <t>RNA, U4atac small nuclear (U12-dependent splicing)</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -4027,6 +4742,11 @@
       <c r="E144" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685664</t>
         </is>
       </c>
     </row>
@@ -4036,12 +4756,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>SHMT2</t>
+          <t>RPL10</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>serine hydroxymethyltransferase 2</t>
+          <t>ribosomal protein L10</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -4052,6 +4772,11 @@
       <c r="E145" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685666</t>
         </is>
       </c>
     </row>
@@ -4061,12 +4786,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>SLC1A4</t>
+          <t>RTTN</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>solute carrier family 1 member 4</t>
+          <t>rotatin</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -4077,6 +4802,11 @@
       <c r="E146" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685669</t>
         </is>
       </c>
     </row>
@@ -4086,12 +4816,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>SLC2A1</t>
+          <t>SHMT2</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>solute carrier family 2 member 1</t>
+          <t>serine hydroxymethyltransferase 2</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -4102,6 +4832,11 @@
       <c r="E147" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685672</t>
         </is>
       </c>
     </row>
@@ -4111,12 +4846,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>SLC9A6</t>
+          <t>SLC1A4</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>solute carrier family 9 member A6</t>
+          <t>solute carrier family 1 member 4</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -4127,6 +4862,11 @@
       <c r="E148" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685675</t>
         </is>
       </c>
     </row>
@@ -4136,12 +4876,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>SLX4</t>
+          <t>SLC2A1</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>SLX4 structure-specific endonuclease subunit</t>
+          <t>solute carrier family 2 member 1</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -4152,6 +4892,11 @@
       <c r="E149" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685677</t>
         </is>
       </c>
     </row>
@@ -4161,12 +4906,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>SMARCA5</t>
+          <t>SLC9A6</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>SWI/SNF related, matrix associated, actin dependent regulator of chromatin, subfamily a, member 5</t>
+          <t>solute carrier family 9 member A6</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -4177,6 +4922,11 @@
       <c r="E150" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685680</t>
         </is>
       </c>
     </row>
@@ -4186,12 +4936,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>SMC1A</t>
+          <t>SLX4</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>structural maintenance of chromosomes 1A</t>
+          <t>SLX4 structure-specific endonuclease subunit</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -4202,6 +4952,11 @@
       <c r="E151" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685683</t>
         </is>
       </c>
     </row>
@@ -4211,12 +4966,12 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>SMC3</t>
+          <t>SMARCA5</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>structural maintenance of chromosomes 3</t>
+          <t>SWI/SNF related, matrix associated, actin dependent regulator of chromatin, subfamily a, member 5</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -4227,6 +4982,11 @@
       <c r="E152" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685686</t>
         </is>
       </c>
     </row>
@@ -4236,12 +4996,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>SMO</t>
+          <t>SMC1A</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>smoothened, frizzled class receptor</t>
+          <t>structural maintenance of chromosomes 1A</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -4252,6 +5012,11 @@
       <c r="E153" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685688</t>
         </is>
       </c>
     </row>
@@ -4261,12 +5026,12 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>SPATA5</t>
+          <t>SMC3</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>spermatogenesis associated 5</t>
+          <t>structural maintenance of chromosomes 3</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -4277,6 +5042,11 @@
       <c r="E154" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685691</t>
         </is>
       </c>
     </row>
@@ -4286,12 +5056,12 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>STAMBP</t>
+          <t>SMO</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>STAM binding protein</t>
+          <t>smoothened, frizzled class receptor</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -4302,6 +5072,11 @@
       <c r="E155" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685694</t>
         </is>
       </c>
     </row>
@@ -4311,12 +5086,12 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>STIL</t>
+          <t>SPATA5</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>STIL, centriolar assembly protein</t>
+          <t>spermatogenesis associated 5</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -4327,6 +5102,11 @@
       <c r="E156" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685696</t>
         </is>
       </c>
     </row>
@@ -4336,12 +5116,12 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>SVBP</t>
+          <t>STAMBP</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>small vasohibin binding protein</t>
+          <t>STAM binding protein</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -4352,6 +5132,11 @@
       <c r="E157" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685699</t>
         </is>
       </c>
     </row>
@@ -4361,12 +5146,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>TAF2</t>
+          <t>STIL</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>TATA-box binding protein associated factor 2</t>
+          <t>STIL, centriolar assembly protein</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -4377,6 +5162,11 @@
       <c r="E158" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685701</t>
         </is>
       </c>
     </row>
@@ -4386,12 +5176,12 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>TBC1D20</t>
+          <t>SVBP</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>TBC1 domain family member 20</t>
+          <t>small vasohibin binding protein</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -4402,6 +5192,11 @@
       <c r="E159" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685704</t>
         </is>
       </c>
     </row>
@@ -4411,12 +5206,12 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>TBCD</t>
+          <t>TAF2</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>tubulin folding cofactor D</t>
+          <t>TATA-box binding protein associated factor 2</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -4427,6 +5222,11 @@
       <c r="E160" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685707</t>
         </is>
       </c>
     </row>
@@ -4436,12 +5236,12 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>TCF4</t>
+          <t>TBC1D20</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>transcription factor 4</t>
+          <t>TBC1 domain family member 20</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -4452,6 +5252,11 @@
       <c r="E161" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685709</t>
         </is>
       </c>
     </row>
@@ -4461,12 +5266,12 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>TMEM222</t>
+          <t>TBCD</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>transmembrane protein 222</t>
+          <t>tubulin folding cofactor D</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -4477,6 +5282,11 @@
       <c r="E162" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685712</t>
         </is>
       </c>
     </row>
@@ -4486,12 +5296,12 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>TMX2</t>
+          <t>TCF4</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>thioredoxin related transmembrane protein 2</t>
+          <t>transcription factor 4</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -4502,6 +5312,11 @@
       <c r="E163" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685714</t>
         </is>
       </c>
     </row>
@@ -4511,12 +5326,12 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>TNPO2</t>
+          <t>TMEM222</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>transportin 2</t>
+          <t>transmembrane protein 222</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -4527,6 +5342,11 @@
       <c r="E164" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685717</t>
         </is>
       </c>
     </row>
@@ -4536,12 +5356,12 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>TOP3A</t>
+          <t>TMX2</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>DNA topoisomerase III alpha</t>
+          <t>thioredoxin related transmembrane protein 2</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -4552,6 +5372,11 @@
       <c r="E165" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685719</t>
         </is>
       </c>
     </row>
@@ -4561,12 +5386,12 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>TP53RK</t>
+          <t>TNPO2</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>TP53 regulating kinase</t>
+          <t>transportin 2</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -4577,6 +5402,11 @@
       <c r="E166" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685722</t>
         </is>
       </c>
     </row>
@@ -4586,12 +5416,12 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>TPRKB</t>
+          <t>TOP3A</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>TP53RK binding protein</t>
+          <t>DNA topoisomerase III alpha</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -4602,6 +5432,11 @@
       <c r="E167" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685724</t>
         </is>
       </c>
     </row>
@@ -4611,12 +5446,12 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>TRAIP</t>
+          <t>TP53RK</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>TRAF interacting protein</t>
+          <t>TP53 regulating kinase</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -4627,6 +5462,11 @@
       <c r="E168" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685727</t>
         </is>
       </c>
     </row>
@@ -4636,12 +5476,12 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>TRAPPC12</t>
+          <t>TPRKB</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>trafficking protein particle complex 12</t>
+          <t>TP53RK binding protein</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -4652,6 +5492,11 @@
       <c r="E169" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685730</t>
         </is>
       </c>
     </row>
@@ -4661,12 +5506,12 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>TRAPPC6B</t>
+          <t>TRAIP</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>trafficking protein particle complex 6B</t>
+          <t>TRAF interacting protein</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -4677,6 +5522,11 @@
       <c r="E170" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685732</t>
         </is>
       </c>
     </row>
@@ -4686,12 +5536,12 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>TRAPPC9</t>
+          <t>TRAPPC12</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>trafficking protein particle complex 9</t>
+          <t>trafficking protein particle complex 12</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -4702,6 +5552,11 @@
       <c r="E171" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685735</t>
         </is>
       </c>
     </row>
@@ -4711,12 +5566,12 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>TRIO</t>
+          <t>TRAPPC6B</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>trio Rho guanine nucleotide exchange factor</t>
+          <t>trafficking protein particle complex 6B</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -4727,6 +5582,11 @@
       <c r="E172" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685737</t>
         </is>
       </c>
     </row>
@@ -4736,12 +5596,12 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>TRMT10A</t>
+          <t>TRAPPC9</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>tRNA methyltransferase 10A</t>
+          <t>trafficking protein particle complex 9</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -4752,6 +5612,11 @@
       <c r="E173" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685739</t>
         </is>
       </c>
     </row>
@@ -4761,12 +5626,12 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>TSEN15</t>
+          <t>TRIO</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>tRNA splicing endonuclease subunit 15</t>
+          <t>trio Rho guanine nucleotide exchange factor</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -4777,6 +5642,11 @@
       <c r="E174" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685744</t>
         </is>
       </c>
     </row>
@@ -4786,12 +5656,12 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>TSEN54</t>
+          <t>TRMT10A</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>tRNA splicing endonuclease subunit 54</t>
+          <t>tRNA methyltransferase 10A</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -4802,6 +5672,11 @@
       <c r="E175" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685747</t>
         </is>
       </c>
     </row>
@@ -4811,12 +5686,12 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>TTC5</t>
+          <t>TSEN15</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>tetratricopeptide repeat domain 5</t>
+          <t>tRNA splicing endonuclease subunit 15</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -4827,6 +5702,11 @@
       <c r="E176" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685749</t>
         </is>
       </c>
     </row>
@@ -4836,12 +5716,12 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>TUBB2B</t>
+          <t>TSEN54</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>tubulin beta 2B class IIb</t>
+          <t>tRNA splicing endonuclease subunit 54</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -4852,6 +5732,11 @@
       <c r="E177" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685752</t>
         </is>
       </c>
     </row>
@@ -4861,12 +5746,12 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>TUBGCP2</t>
+          <t>TTC5</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>tubulin gamma complex associated protein 2</t>
+          <t>tetratricopeptide repeat domain 5</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -4877,6 +5762,11 @@
       <c r="E178" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685754</t>
         </is>
       </c>
     </row>
@@ -4886,12 +5776,12 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>TUBGCP4</t>
+          <t>TUBB2B</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>tubulin gamma complex associated protein 4</t>
+          <t>tubulin beta 2B class IIb</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -4902,6 +5792,11 @@
       <c r="E179" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685757</t>
         </is>
       </c>
     </row>
@@ -4911,12 +5806,12 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>TUBGCP6</t>
+          <t>TUBGCP2</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>tubulin gamma complex associated protein 6</t>
+          <t>tubulin gamma complex associated protein 2</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -4927,6 +5822,11 @@
       <c r="E180" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685759</t>
         </is>
       </c>
     </row>
@@ -4936,12 +5836,12 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>UBA5</t>
+          <t>TUBGCP4</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>ubiquitin like modifier activating enzyme 5</t>
+          <t>tubulin gamma complex associated protein 4</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -4952,6 +5852,11 @@
       <c r="E181" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685762</t>
         </is>
       </c>
     </row>
@@ -4961,12 +5866,12 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>UBE3A</t>
+          <t>TUBGCP6</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>ubiquitin protein ligase E3A</t>
+          <t>tubulin gamma complex associated protein 6</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -4977,6 +5882,11 @@
       <c r="E182" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685764</t>
         </is>
       </c>
     </row>
@@ -4986,12 +5896,12 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>UBE3B</t>
+          <t>UBA5</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>ubiquitin protein ligase E3B</t>
+          <t>ubiquitin like modifier activating enzyme 5</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -5002,6 +5912,11 @@
       <c r="E183" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685767</t>
         </is>
       </c>
     </row>
@@ -5011,12 +5926,12 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>UFC1</t>
+          <t>UBE3A</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>ubiquitin-fold modifier conjugating enzyme 1</t>
+          <t>ubiquitin protein ligase E3A</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -5027,6 +5942,11 @@
       <c r="E184" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685769</t>
         </is>
       </c>
     </row>
@@ -5036,12 +5956,12 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>UFM1</t>
+          <t>UBE3B</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>ubiquitin fold modifier 1</t>
+          <t>ubiquitin protein ligase E3B</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -5052,6 +5972,11 @@
       <c r="E185" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685772</t>
         </is>
       </c>
     </row>
@@ -5061,12 +5986,12 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>UGP2</t>
+          <t>UFC1</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>UDP-glucose pyrophosphorylase 2</t>
+          <t>ubiquitin-fold modifier conjugating enzyme 1</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -5077,6 +6002,11 @@
       <c r="E186" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685774</t>
         </is>
       </c>
     </row>
@@ -5086,12 +6016,12 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>UNC80</t>
+          <t>UFM1</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>unc-80 homolog, NALCN channel complex subunit</t>
+          <t>ubiquitin fold modifier 1</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -5102,6 +6032,11 @@
       <c r="E187" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685777</t>
         </is>
       </c>
     </row>
@@ -5111,12 +6046,12 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>VPS4A</t>
+          <t>UGP2</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>vacuolar protein sorting 4 homolog A</t>
+          <t>UDP-glucose pyrophosphorylase 2</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -5127,6 +6062,11 @@
       <c r="E188" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685779</t>
         </is>
       </c>
     </row>
@@ -5136,12 +6076,12 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>VRK1</t>
+          <t>UNC80</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>vaccinia related kinase 1</t>
+          <t>unc-80 homolog, NALCN channel complex subunit</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -5152,6 +6092,11 @@
       <c r="E189" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685782</t>
         </is>
       </c>
     </row>
@@ -5161,12 +6106,12 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>WDFY3</t>
+          <t>VPS4A</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>WD repeat and FYVE domain containing 3</t>
+          <t>vacuolar protein sorting 4 homolog A</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -5177,6 +6122,11 @@
       <c r="E190" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685784</t>
         </is>
       </c>
     </row>
@@ -5186,12 +6136,12 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>WDR11</t>
+          <t>VRK1</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>WD repeat domain 11</t>
+          <t>vaccinia related kinase 1</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -5202,6 +6152,11 @@
       <c r="E191" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685787</t>
         </is>
       </c>
     </row>
@@ -5211,12 +6166,12 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>WDR37</t>
+          <t>WDFY3</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>WD repeat domain 37</t>
+          <t>WD repeat and FYVE domain containing 3</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -5227,6 +6182,11 @@
       <c r="E192" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685789</t>
         </is>
       </c>
     </row>
@@ -5236,12 +6196,12 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>WDR4</t>
+          <t>WDR11</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>WD repeat domain 4</t>
+          <t>WD repeat domain 11</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -5252,6 +6212,11 @@
       <c r="E193" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685792</t>
         </is>
       </c>
     </row>
@@ -5261,12 +6226,12 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>WDR62</t>
+          <t>WDR37</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>WD repeat domain 62</t>
+          <t>WD repeat domain 37</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
@@ -5277,6 +6242,11 @@
       <c r="E194" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685794</t>
         </is>
       </c>
     </row>
@@ -5286,12 +6256,12 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>WDR73</t>
+          <t>WDR4</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>WD repeat domain 73</t>
+          <t>WD repeat domain 4</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -5302,6 +6272,11 @@
       <c r="E195" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685797</t>
         </is>
       </c>
     </row>
@@ -5311,12 +6286,12 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>XRCC4</t>
+          <t>WDR62</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>X-ray repair cross complementing 4</t>
+          <t>WD repeat domain 62</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -5327,6 +6302,11 @@
       <c r="E196" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685799</t>
         </is>
       </c>
     </row>
@@ -5336,12 +6316,12 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>YIF1B</t>
+          <t>WDR73</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Yip1 interacting factor homolog B, membrane trafficking protein</t>
+          <t>WD repeat domain 73</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
@@ -5352,6 +6332,11 @@
       <c r="E197" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685802</t>
         </is>
       </c>
     </row>
@@ -5361,12 +6346,12 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>YIPF5</t>
+          <t>WLS</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Yip1 domain family member 5</t>
+          <t>wntless Wnt ligand secretion mediator</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -5377,6 +6362,11 @@
       <c r="E198" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685804</t>
         </is>
       </c>
     </row>
@@ -5386,12 +6376,12 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>YRDC</t>
+          <t>XRCC4</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>yrdC N6-threonylcarbamoyltransferase domain containing</t>
+          <t>X-ray repair cross complementing 4</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -5402,6 +6392,11 @@
       <c r="E199" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685807</t>
         </is>
       </c>
     </row>
@@ -5411,12 +6406,12 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>ZEB2</t>
+          <t>YIF1B</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>zinc finger E-box binding homeobox 2</t>
+          <t>Yip1 interacting factor homolog B, membrane trafficking protein</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -5427,6 +6422,11 @@
       <c r="E200" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685809</t>
         </is>
       </c>
     </row>
@@ -5436,12 +6436,12 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>ZNF335</t>
+          <t>YIPF5</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>zinc finger protein 335</t>
+          <t>Yip1 domain family member 5</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -5452,6 +6452,11 @@
       <c r="E201" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685812</t>
         </is>
       </c>
     </row>
@@ -5461,12 +6466,12 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>ZNF526</t>
+          <t>YRDC</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>zinc finger protein 526</t>
+          <t>yrdC N6-threonylcarbamoyltransferase domain containing</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -5477,6 +6482,11 @@
       <c r="E202" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685814</t>
         </is>
       </c>
     </row>
@@ -5486,22 +6496,27 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>ADD3</t>
+          <t>ZEB2</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>adducin 3</t>
+          <t>zinc finger E-box binding homeobox 2</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685817</t>
         </is>
       </c>
     </row>
@@ -5511,22 +6526,27 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>AKT3</t>
+          <t>ZNF335</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>AKT serine/threonine kinase 3</t>
+          <t>zinc finger protein 335</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685820</t>
         </is>
       </c>
     </row>
@@ -5536,22 +6556,27 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>ATP9A</t>
+          <t>ZNF526</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>ATPase phospholipid transporting 9A (putative)</t>
+          <t>zinc finger protein 526</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685822</t>
         </is>
       </c>
     </row>
@@ -5561,12 +6586,12 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>C7orf43</t>
+          <t>ADD3</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>chromosome 7 open reading frame 43</t>
+          <t>adducin 3</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -5577,6 +6602,11 @@
       <c r="E206" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685825</t>
         </is>
       </c>
     </row>
@@ -5586,12 +6616,12 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>CDK13</t>
+          <t>AKT3</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>cyclin dependent kinase 13</t>
+          <t>AKT serine/threonine kinase 3</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -5602,6 +6632,11 @@
       <c r="E207" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685827</t>
         </is>
       </c>
     </row>
@@ -5611,12 +6646,12 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>CDK6</t>
+          <t>ATP9A</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>cyclin dependent kinase 6</t>
+          <t>ATPase phospholipid transporting 9A (putative)</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -5627,6 +6662,11 @@
       <c r="E208" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685830</t>
         </is>
       </c>
     </row>
@@ -5636,12 +6676,12 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>CDKL5</t>
+          <t>C7orf43</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>cyclin dependent kinase like 5</t>
+          <t>chromosome 7 open reading frame 43</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -5652,6 +6692,11 @@
       <c r="E209" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685832</t>
         </is>
       </c>
     </row>
@@ -5661,12 +6706,12 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>CEP63</t>
+          <t>CDK13</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>centrosomal protein 63</t>
+          <t>cyclin dependent kinase 13</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -5677,6 +6722,11 @@
       <c r="E210" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685834</t>
         </is>
       </c>
     </row>
@@ -5686,12 +6736,12 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>CHD4</t>
+          <t>CDK6</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>chromodomain helicase DNA binding protein 4</t>
+          <t>cyclin dependent kinase 6</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
@@ -5702,6 +6752,11 @@
       <c r="E211" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685837</t>
         </is>
       </c>
     </row>
@@ -5711,12 +6766,12 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>CLTC</t>
+          <t>CDKL5</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>clathrin heavy chain</t>
+          <t>cyclin dependent kinase like 5</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
@@ -5727,6 +6782,11 @@
       <c r="E212" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685840</t>
         </is>
       </c>
     </row>
@@ -5736,12 +6796,12 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>COPB2</t>
+          <t>CEP63</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>coatomer protein complex subunit beta 2</t>
+          <t>centrosomal protein 63</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
@@ -5752,6 +6812,11 @@
       <c r="E213" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685842</t>
         </is>
       </c>
     </row>
@@ -5761,12 +6826,12 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>CRIPT</t>
+          <t>CHD4</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>CXXC repeat containing interactor of PDZ3 domain</t>
+          <t>chromodomain helicase DNA binding protein 4</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
@@ -5777,6 +6842,11 @@
       <c r="E214" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685845</t>
         </is>
       </c>
     </row>
@@ -5786,12 +6856,12 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>DNM1L</t>
+          <t>CLTC</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>dynamin 1 like</t>
+          <t>clathrin heavy chain</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -5802,6 +6872,11 @@
       <c r="E215" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685847</t>
         </is>
       </c>
     </row>
@@ -5811,12 +6886,12 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>DPP6</t>
+          <t>COPB2</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>dipeptidyl peptidase like 6</t>
+          <t>coatomer protein complex subunit beta 2</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
@@ -5827,6 +6902,11 @@
       <c r="E216" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685850</t>
         </is>
       </c>
     </row>
@@ -5836,12 +6916,12 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>ERCC5</t>
+          <t>CRIPT</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>ERCC excision repair 5, endonuclease</t>
+          <t>CXXC repeat containing interactor of PDZ3 domain</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
@@ -5852,6 +6932,11 @@
       <c r="E217" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685852</t>
         </is>
       </c>
     </row>
@@ -5861,12 +6946,12 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>FRMD4A</t>
+          <t>DNM1L</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>FERM domain containing 4A</t>
+          <t>dynamin 1 like</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
@@ -5877,6 +6962,11 @@
       <c r="E218" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685855</t>
         </is>
       </c>
     </row>
@@ -5886,12 +6976,12 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>HHAT</t>
+          <t>DPP6</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>hedgehog acyltransferase</t>
+          <t>dipeptidyl peptidase like 6</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
@@ -5902,6 +6992,11 @@
       <c r="E219" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685858</t>
         </is>
       </c>
     </row>
@@ -5911,12 +7006,12 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>KLHL7</t>
+          <t>ERCC5</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>kelch like family member 7</t>
+          <t>ERCC excision repair 5, endonuclease</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
@@ -5927,6 +7022,11 @@
       <c r="E220" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685860</t>
         </is>
       </c>
     </row>
@@ -5936,12 +7036,12 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>LINGO1</t>
+          <t>FRMD4A</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>leucine rich repeat and Ig domain containing 1</t>
+          <t>FERM domain containing 4A</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
@@ -5952,6 +7052,11 @@
       <c r="E221" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685863</t>
         </is>
       </c>
     </row>
@@ -5961,12 +7066,12 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>MCM7</t>
+          <t>HHAT</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>minichromosome maintenance complex component 7</t>
+          <t>hedgehog acyltransferase</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
@@ -5977,6 +7082,11 @@
       <c r="E222" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685866</t>
         </is>
       </c>
     </row>
@@ -5986,12 +7096,12 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>MRE11</t>
+          <t>KLHL7</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>MRE11 homolog, double strand break repair nuclease</t>
+          <t>kelch like family member 7</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
@@ -6002,6 +7112,11 @@
       <c r="E223" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685868</t>
         </is>
       </c>
     </row>
@@ -6011,12 +7126,12 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>NACC1</t>
+          <t>LINGO1</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>nucleus accumbens associated 1</t>
+          <t>leucine rich repeat and Ig domain containing 1</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
@@ -6027,6 +7142,11 @@
       <c r="E224" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685871</t>
         </is>
       </c>
     </row>
@@ -6036,12 +7156,12 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>NCAPD3</t>
+          <t>MCM7</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>non-SMC condensin II complex subunit D3</t>
+          <t>minichromosome maintenance complex component 7</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
@@ -6052,6 +7172,11 @@
       <c r="E225" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685874</t>
         </is>
       </c>
     </row>
@@ -6061,12 +7186,12 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>NSMCE2</t>
+          <t>MRE11</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>NSE2/MMS21 homolog, SMC5-SMC6 complex SUMO ligase</t>
+          <t>MRE11 homolog, double strand break repair nuclease</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
@@ -6077,6 +7202,11 @@
       <c r="E226" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685876</t>
         </is>
       </c>
     </row>
@@ -6086,12 +7216,12 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>PCGF2</t>
+          <t>NACC1</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>polycomb group ring finger 2</t>
+          <t>nucleus accumbens associated 1</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
@@ -6102,6 +7232,11 @@
       <c r="E227" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685879</t>
         </is>
       </c>
     </row>
@@ -6111,12 +7246,12 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>PDCD6IP</t>
+          <t>NCAPD3</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>programmed cell death 6 interacting protein</t>
+          <t>non-SMC condensin II complex subunit D3</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
@@ -6127,6 +7262,11 @@
       <c r="E228" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685881</t>
         </is>
       </c>
     </row>
@@ -6136,12 +7276,12 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>PHC1</t>
+          <t>NSMCE2</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>polyhomeotic homolog 1</t>
+          <t>NSE2/MMS21 homolog, SMC5-SMC6 complex SUMO ligase</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
@@ -6152,6 +7292,11 @@
       <c r="E229" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685884</t>
         </is>
       </c>
     </row>
@@ -6161,12 +7306,12 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>PPP1R15B</t>
+          <t>PCGF2</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>protein phosphatase 1 regulatory subunit 15B</t>
+          <t>polycomb group ring finger 2</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
@@ -6177,6 +7322,11 @@
       <c r="E230" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685886</t>
         </is>
       </c>
     </row>
@@ -6186,12 +7336,12 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>PRIM1</t>
+          <t>PDCD6IP</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>DNA primase subunit 1</t>
+          <t>programmed cell death 6 interacting protein</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
@@ -6202,6 +7352,11 @@
       <c r="E231" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685889</t>
         </is>
       </c>
     </row>
@@ -6211,12 +7366,12 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>RAC1</t>
+          <t>PHC1</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>Rac family small GTPase 1</t>
+          <t>polyhomeotic homolog 1</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
@@ -6227,6 +7382,11 @@
       <c r="E232" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685892</t>
         </is>
       </c>
     </row>
@@ -6236,12 +7396,12 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>RNF113A</t>
+          <t>PPP1R15B</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>ring finger protein 113A</t>
+          <t>protein phosphatase 1 regulatory subunit 15B</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
@@ -6252,6 +7412,11 @@
       <c r="E233" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685894</t>
         </is>
       </c>
     </row>
@@ -6261,12 +7426,12 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>RRP7A</t>
+          <t>PRIM1</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>ribosomal RNA processing 7 homolog A</t>
+          <t>DNA primase subunit 1</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
@@ -6277,6 +7442,11 @@
       <c r="E234" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685898</t>
         </is>
       </c>
     </row>
@@ -6286,12 +7456,12 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>RUSC2</t>
+          <t>RAC1</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>RUN and SH3 domain containing 2</t>
+          <t>Rac family small GTPase 1</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
@@ -6302,6 +7472,11 @@
       <c r="E235" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685901</t>
         </is>
       </c>
     </row>
@@ -6311,12 +7486,12 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>SASS6</t>
+          <t>RRP7A</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>SAS-6 centriolar assembly protein</t>
+          <t>ribosomal RNA processing 7 homolog A</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
@@ -6327,6 +7502,11 @@
       <c r="E236" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685904</t>
         </is>
       </c>
     </row>
@@ -6336,12 +7516,12 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>SEC31A</t>
+          <t>RUSC2</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>SEC31 homolog A, COPII coat complex component</t>
+          <t>RUN and SH3 domain containing 2</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
@@ -6352,6 +7532,11 @@
       <c r="E237" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685907</t>
         </is>
       </c>
     </row>
@@ -6361,12 +7546,12 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>SELENOI</t>
+          <t>SASS6</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>selenoprotein I</t>
+          <t>SAS-6 centriolar assembly protein</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
@@ -6377,6 +7562,11 @@
       <c r="E238" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685909</t>
         </is>
       </c>
     </row>
@@ -6386,12 +7576,12 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>SLC25A19</t>
+          <t>SEC31A</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>solute carrier family 25 member 19</t>
+          <t>SEC31 homolog A, COPII coat complex component</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
@@ -6402,6 +7592,11 @@
       <c r="E239" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685912</t>
         </is>
       </c>
     </row>
@@ -6411,12 +7606,12 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>STAG1</t>
+          <t>SELENOI</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>stromal antigen 1</t>
+          <t>selenoprotein I</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
@@ -6427,6 +7622,11 @@
       <c r="E240" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685915</t>
         </is>
       </c>
     </row>
@@ -6436,12 +7636,12 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>TRIP13</t>
+          <t>SLC25A19</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>thyroid hormone receptor interactor 13</t>
+          <t>solute carrier family 25 member 19</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
@@ -6452,6 +7652,11 @@
       <c r="E241" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685917</t>
         </is>
       </c>
     </row>
@@ -6461,12 +7666,12 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>TRIT1</t>
+          <t>STAG1</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>tRNA isopentenyltransferase 1</t>
+          <t>stromal antigen 1</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
@@ -6477,6 +7682,11 @@
       <c r="E242" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685920</t>
         </is>
       </c>
     </row>
@@ -6486,12 +7696,12 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>TSEN2</t>
+          <t>TRIP13</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>tRNA splicing endonuclease subunit 2</t>
+          <t>thyroid hormone receptor interactor 13</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
@@ -6502,6 +7712,11 @@
       <c r="E243" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685923</t>
         </is>
       </c>
     </row>
@@ -6511,12 +7726,12 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>VPS50</t>
+          <t>TRIT1</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>VPS50, EARP/GARPII complex subunit</t>
+          <t>tRNA isopentenyltransferase 1</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
@@ -6527,6 +7742,11 @@
       <c r="E244" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685925</t>
         </is>
       </c>
     </row>
@@ -6536,12 +7756,12 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>VPS51</t>
+          <t>TSEN2</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>VPS51, GARP complex subunit</t>
+          <t>tRNA splicing endonuclease subunit 2</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
@@ -6552,6 +7772,11 @@
       <c r="E245" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685928</t>
         </is>
       </c>
     </row>
@@ -6561,12 +7786,12 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>ZNF668</t>
+          <t>VPS50</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>zinc finger protein 668</t>
+          <t>VPS50, EARP/GARPII complex subunit</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
@@ -6577,6 +7802,11 @@
       <c r="E246" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685931</t>
         </is>
       </c>
     </row>
@@ -6586,22 +7816,27 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>ATRIP</t>
+          <t>VPS51</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>ATR interacting protein</t>
+          <t>VPS51, GARP complex subunit</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685933</t>
         </is>
       </c>
     </row>
@@ -6611,22 +7846,27 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>CDC6</t>
+          <t>ZNF668</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>cell division cycle 6</t>
+          <t>zinc finger protein 668</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685936</t>
         </is>
       </c>
     </row>
@@ -6636,12 +7876,12 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>CENPE</t>
+          <t>ATRIP</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>centromere protein E</t>
+          <t>ATR interacting protein</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
@@ -6652,6 +7892,11 @@
       <c r="E249" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685938</t>
         </is>
       </c>
     </row>
@@ -6661,12 +7906,12 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>COPB1</t>
+          <t>CDC6</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>coatomer protein complex subunit beta 1</t>
+          <t>cell division cycle 6</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
@@ -6677,6 +7922,11 @@
       <c r="E250" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685941</t>
         </is>
       </c>
     </row>
@@ -6686,12 +7936,12 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>FDXR</t>
+          <t>CENPE</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>ferredoxin reductase</t>
+          <t>centromere protein E</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
@@ -6702,6 +7952,11 @@
       <c r="E251" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685944</t>
         </is>
       </c>
     </row>
@@ -6711,12 +7966,12 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>NCAPH</t>
+          <t>COPB1</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>non-SMC condensin I complex subunit H</t>
+          <t>coatomer protein complex subunit beta 1</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
@@ -6727,6 +7982,11 @@
       <c r="E252" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685946</t>
         </is>
       </c>
     </row>
@@ -6736,12 +7996,12 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>NIN</t>
+          <t>FDXR</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>ninein</t>
+          <t>ferredoxin reductase</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
@@ -6752,6 +8012,11 @@
       <c r="E253" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685949</t>
         </is>
       </c>
     </row>
@@ -6761,12 +8026,12 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>NUF2</t>
+          <t>NCAPH</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>NUF2, NDC80 kinetochore complex component</t>
+          <t>non-SMC condensin I complex subunit H</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
@@ -6777,6 +8042,11 @@
       <c r="E254" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685951</t>
         </is>
       </c>
     </row>
@@ -6786,12 +8056,12 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>NUP37</t>
+          <t>NIN</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>nucleoporin 37</t>
+          <t>ninein</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
@@ -6802,6 +8072,11 @@
       <c r="E255" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685954</t>
         </is>
       </c>
     </row>
@@ -6811,12 +8086,12 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>PCYT2</t>
+          <t>NUF2</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>phosphate cytidylyltransferase 2, ethanolamine</t>
+          <t>NUF2, NDC80 kinetochore complex component</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
@@ -6827,6 +8102,11 @@
       <c r="E256" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685957</t>
         </is>
       </c>
     </row>
@@ -6836,12 +8116,12 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>TOGARAM1</t>
+          <t>NUP37</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>TOG array regulator of axonemal microtubules 1</t>
+          <t>nucleoporin 37</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
@@ -6852,6 +8132,11 @@
       <c r="E257" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685959</t>
         </is>
       </c>
     </row>
@@ -6861,12 +8146,12 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>TSEN34</t>
+          <t>PCYT2</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>tRNA splicing endonuclease subunit 34</t>
+          <t>phosphate cytidylyltransferase 2, ethanolamine</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
@@ -6877,6 +8162,11 @@
       <c r="E258" t="inlineStr">
         <is>
           <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685962</t>
         </is>
       </c>
     </row>
@@ -6886,22 +8176,87 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
+          <t>TOGARAM1</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>TOG array regulator of axonemal microtubules 1</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685964</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>TSEN34</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>tRNA splicing endonuclease subunit 34</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685967</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
           <t>USP18</t>
         </is>
       </c>
-      <c r="C259" t="inlineStr">
+      <c r="C261" t="inlineStr">
         <is>
           <t>ubiquitin specific peptidase 18</t>
         </is>
       </c>
-      <c r="D259" t="inlineStr">
+      <c r="D261" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="E259" t="inlineStr">
-        <is>
-          <t>Microcephaly</t>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:50.685970</t>
         </is>
       </c>
     </row>

--- a/data/panelapp/au/Microcephaly.xlsx
+++ b/data/panelapp/au/Microcephaly.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="metadata" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -486,7 +487,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685269</t>
+          <t>2021-10-05 14:34:51.850696</t>
         </is>
       </c>
     </row>
@@ -516,7 +517,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685280</t>
+          <t>2021-10-05 14:34:51.850704</t>
         </is>
       </c>
     </row>
@@ -546,7 +547,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685284</t>
+          <t>2021-10-05 14:34:51.850707</t>
         </is>
       </c>
     </row>
@@ -576,7 +577,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685287</t>
+          <t>2021-10-05 14:34:51.850710</t>
         </is>
       </c>
     </row>
@@ -606,7 +607,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685289</t>
+          <t>2021-10-05 14:34:51.850713</t>
         </is>
       </c>
     </row>
@@ -636,7 +637,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685292</t>
+          <t>2021-10-05 14:34:51.850716</t>
         </is>
       </c>
     </row>
@@ -666,7 +667,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685295</t>
+          <t>2021-10-05 14:34:51.850718</t>
         </is>
       </c>
     </row>
@@ -696,7 +697,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685297</t>
+          <t>2021-10-05 14:34:51.850721</t>
         </is>
       </c>
     </row>
@@ -726,7 +727,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685300</t>
+          <t>2021-10-05 14:34:51.850724</t>
         </is>
       </c>
     </row>
@@ -756,7 +757,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685303</t>
+          <t>2021-10-05 14:34:51.850727</t>
         </is>
       </c>
     </row>
@@ -786,7 +787,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685305</t>
+          <t>2021-10-05 14:34:51.850729</t>
         </is>
       </c>
     </row>
@@ -816,7 +817,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685308</t>
+          <t>2021-10-05 14:34:51.850732</t>
         </is>
       </c>
     </row>
@@ -846,7 +847,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685310</t>
+          <t>2021-10-05 14:34:51.850734</t>
         </is>
       </c>
     </row>
@@ -876,7 +877,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685313</t>
+          <t>2021-10-05 14:34:51.850737</t>
         </is>
       </c>
     </row>
@@ -906,7 +907,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685315</t>
+          <t>2021-10-05 14:34:51.850739</t>
         </is>
       </c>
     </row>
@@ -936,7 +937,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685318</t>
+          <t>2021-10-05 14:34:51.850742</t>
         </is>
       </c>
     </row>
@@ -966,7 +967,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685321</t>
+          <t>2021-10-05 14:34:51.850745</t>
         </is>
       </c>
     </row>
@@ -996,7 +997,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685323</t>
+          <t>2021-10-05 14:34:51.850747</t>
         </is>
       </c>
     </row>
@@ -1026,7 +1027,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685326</t>
+          <t>2021-10-05 14:34:51.850750</t>
         </is>
       </c>
     </row>
@@ -1056,7 +1057,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685328</t>
+          <t>2021-10-05 14:34:51.850753</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1087,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685331</t>
+          <t>2021-10-05 14:34:51.850755</t>
         </is>
       </c>
     </row>
@@ -1116,7 +1117,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685334</t>
+          <t>2021-10-05 14:34:51.850758</t>
         </is>
       </c>
     </row>
@@ -1146,7 +1147,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685336</t>
+          <t>2021-10-05 14:34:51.850760</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1177,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685338</t>
+          <t>2021-10-05 14:34:51.850763</t>
         </is>
       </c>
     </row>
@@ -1206,7 +1207,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685341</t>
+          <t>2021-10-05 14:34:51.850766</t>
         </is>
       </c>
     </row>
@@ -1236,7 +1237,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685344</t>
+          <t>2021-10-05 14:34:51.850768</t>
         </is>
       </c>
     </row>
@@ -1266,7 +1267,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685347</t>
+          <t>2021-10-05 14:34:51.850771</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1297,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685349</t>
+          <t>2021-10-05 14:34:51.850773</t>
         </is>
       </c>
     </row>
@@ -1326,7 +1327,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685352</t>
+          <t>2021-10-05 14:34:51.850776</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1357,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685354</t>
+          <t>2021-10-05 14:34:51.850778</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1387,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685357</t>
+          <t>2021-10-05 14:34:51.850781</t>
         </is>
       </c>
     </row>
@@ -1416,7 +1417,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685360</t>
+          <t>2021-10-05 14:34:51.850783</t>
         </is>
       </c>
     </row>
@@ -1446,7 +1447,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685362</t>
+          <t>2021-10-05 14:34:51.850786</t>
         </is>
       </c>
     </row>
@@ -1476,7 +1477,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685365</t>
+          <t>2021-10-05 14:34:51.850789</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1507,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685368</t>
+          <t>2021-10-05 14:34:51.850791</t>
         </is>
       </c>
     </row>
@@ -1536,7 +1537,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685370</t>
+          <t>2021-10-05 14:34:51.850794</t>
         </is>
       </c>
     </row>
@@ -1566,7 +1567,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685373</t>
+          <t>2021-10-05 14:34:51.850796</t>
         </is>
       </c>
     </row>
@@ -1596,7 +1597,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685375</t>
+          <t>2021-10-05 14:34:51.850799</t>
         </is>
       </c>
     </row>
@@ -1626,7 +1627,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685378</t>
+          <t>2021-10-05 14:34:51.850801</t>
         </is>
       </c>
     </row>
@@ -1656,7 +1657,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685381</t>
+          <t>2021-10-05 14:34:51.850804</t>
         </is>
       </c>
     </row>
@@ -1686,7 +1687,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685384</t>
+          <t>2021-10-05 14:34:51.850807</t>
         </is>
       </c>
     </row>
@@ -1716,7 +1717,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685387</t>
+          <t>2021-10-05 14:34:51.850809</t>
         </is>
       </c>
     </row>
@@ -1746,7 +1747,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685389</t>
+          <t>2021-10-05 14:34:51.850812</t>
         </is>
       </c>
     </row>
@@ -1776,7 +1777,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685392</t>
+          <t>2021-10-05 14:34:51.850814</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1807,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685394</t>
+          <t>2021-10-05 14:34:51.850817</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1837,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685397</t>
+          <t>2021-10-05 14:34:51.850819</t>
         </is>
       </c>
     </row>
@@ -1866,7 +1867,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685399</t>
+          <t>2021-10-05 14:34:51.850822</t>
         </is>
       </c>
     </row>
@@ -1896,7 +1897,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685402</t>
+          <t>2021-10-05 14:34:51.850824</t>
         </is>
       </c>
     </row>
@@ -1926,7 +1927,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685405</t>
+          <t>2021-10-05 14:34:51.850827</t>
         </is>
       </c>
     </row>
@@ -1956,7 +1957,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685407</t>
+          <t>2021-10-05 14:34:51.850830</t>
         </is>
       </c>
     </row>
@@ -1986,7 +1987,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685410</t>
+          <t>2021-10-05 14:34:51.850832</t>
         </is>
       </c>
     </row>
@@ -2016,7 +2017,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685412</t>
+          <t>2021-10-05 14:34:51.850834</t>
         </is>
       </c>
     </row>
@@ -2046,7 +2047,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685415</t>
+          <t>2021-10-05 14:34:51.850837</t>
         </is>
       </c>
     </row>
@@ -2076,7 +2077,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685418</t>
+          <t>2021-10-05 14:34:51.850840</t>
         </is>
       </c>
     </row>
@@ -2106,7 +2107,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685421</t>
+          <t>2021-10-05 14:34:51.850843</t>
         </is>
       </c>
     </row>
@@ -2136,7 +2137,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685423</t>
+          <t>2021-10-05 14:34:51.850845</t>
         </is>
       </c>
     </row>
@@ -2166,7 +2167,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685426</t>
+          <t>2021-10-05 14:34:51.850848</t>
         </is>
       </c>
     </row>
@@ -2196,7 +2197,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685429</t>
+          <t>2021-10-05 14:34:51.850850</t>
         </is>
       </c>
     </row>
@@ -2226,7 +2227,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685431</t>
+          <t>2021-10-05 14:34:51.850852</t>
         </is>
       </c>
     </row>
@@ -2256,7 +2257,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685434</t>
+          <t>2021-10-05 14:34:51.850855</t>
         </is>
       </c>
     </row>
@@ -2286,7 +2287,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685436</t>
+          <t>2021-10-05 14:34:51.850858</t>
         </is>
       </c>
     </row>
@@ -2316,7 +2317,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685439</t>
+          <t>2021-10-05 14:34:51.850860</t>
         </is>
       </c>
     </row>
@@ -2346,7 +2347,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685442</t>
+          <t>2021-10-05 14:34:51.850863</t>
         </is>
       </c>
     </row>
@@ -2376,7 +2377,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685444</t>
+          <t>2021-10-05 14:34:51.850865</t>
         </is>
       </c>
     </row>
@@ -2406,7 +2407,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685448</t>
+          <t>2021-10-05 14:34:51.850869</t>
         </is>
       </c>
     </row>
@@ -2436,7 +2437,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685451</t>
+          <t>2021-10-05 14:34:51.850871</t>
         </is>
       </c>
     </row>
@@ -2466,7 +2467,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685454</t>
+          <t>2021-10-05 14:34:51.850874</t>
         </is>
       </c>
     </row>
@@ -2496,7 +2497,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685456</t>
+          <t>2021-10-05 14:34:51.850876</t>
         </is>
       </c>
     </row>
@@ -2526,7 +2527,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685459</t>
+          <t>2021-10-05 14:34:51.850879</t>
         </is>
       </c>
     </row>
@@ -2556,7 +2557,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685461</t>
+          <t>2021-10-05 14:34:51.850881</t>
         </is>
       </c>
     </row>
@@ -2586,7 +2587,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685464</t>
+          <t>2021-10-05 14:34:51.850884</t>
         </is>
       </c>
     </row>
@@ -2616,7 +2617,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685466</t>
+          <t>2021-10-05 14:34:51.850886</t>
         </is>
       </c>
     </row>
@@ -2646,7 +2647,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685469</t>
+          <t>2021-10-05 14:34:51.850889</t>
         </is>
       </c>
     </row>
@@ -2676,7 +2677,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685472</t>
+          <t>2021-10-05 14:34:51.850891</t>
         </is>
       </c>
     </row>
@@ -2706,7 +2707,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685474</t>
+          <t>2021-10-05 14:34:51.850894</t>
         </is>
       </c>
     </row>
@@ -2736,7 +2737,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685477</t>
+          <t>2021-10-05 14:34:51.850896</t>
         </is>
       </c>
     </row>
@@ -2766,7 +2767,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685481</t>
+          <t>2021-10-05 14:34:51.850901</t>
         </is>
       </c>
     </row>
@@ -2796,7 +2797,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685485</t>
+          <t>2021-10-05 14:34:51.850904</t>
         </is>
       </c>
     </row>
@@ -2826,7 +2827,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685488</t>
+          <t>2021-10-05 14:34:51.850907</t>
         </is>
       </c>
     </row>
@@ -2856,7 +2857,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685491</t>
+          <t>2021-10-05 14:34:51.850909</t>
         </is>
       </c>
     </row>
@@ -2886,7 +2887,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685493</t>
+          <t>2021-10-05 14:34:51.850912</t>
         </is>
       </c>
     </row>
@@ -2916,7 +2917,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685496</t>
+          <t>2021-10-05 14:34:51.850914</t>
         </is>
       </c>
     </row>
@@ -2946,7 +2947,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685498</t>
+          <t>2021-10-05 14:34:51.850917</t>
         </is>
       </c>
     </row>
@@ -2976,7 +2977,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685501</t>
+          <t>2021-10-05 14:34:51.850919</t>
         </is>
       </c>
     </row>
@@ -3006,7 +3007,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685503</t>
+          <t>2021-10-05 14:34:51.850922</t>
         </is>
       </c>
     </row>
@@ -3036,7 +3037,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685506</t>
+          <t>2021-10-05 14:34:51.850924</t>
         </is>
       </c>
     </row>
@@ -3066,7 +3067,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685509</t>
+          <t>2021-10-05 14:34:51.850927</t>
         </is>
       </c>
     </row>
@@ -3096,7 +3097,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685511</t>
+          <t>2021-10-05 14:34:51.850929</t>
         </is>
       </c>
     </row>
@@ -3126,7 +3127,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685514</t>
+          <t>2021-10-05 14:34:51.850932</t>
         </is>
       </c>
     </row>
@@ -3156,7 +3157,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685516</t>
+          <t>2021-10-05 14:34:51.850934</t>
         </is>
       </c>
     </row>
@@ -3186,7 +3187,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685519</t>
+          <t>2021-10-05 14:34:51.850937</t>
         </is>
       </c>
     </row>
@@ -3216,7 +3217,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685521</t>
+          <t>2021-10-05 14:34:51.850939</t>
         </is>
       </c>
     </row>
@@ -3246,7 +3247,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685525</t>
+          <t>2021-10-05 14:34:51.850943</t>
         </is>
       </c>
     </row>
@@ -3276,7 +3277,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685528</t>
+          <t>2021-10-05 14:34:51.850946</t>
         </is>
       </c>
     </row>
@@ -3306,7 +3307,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685531</t>
+          <t>2021-10-05 14:34:51.850949</t>
         </is>
       </c>
     </row>
@@ -3336,7 +3337,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685534</t>
+          <t>2021-10-05 14:34:51.850951</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3367,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685536</t>
+          <t>2021-10-05 14:34:51.850954</t>
         </is>
       </c>
     </row>
@@ -3396,7 +3397,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685539</t>
+          <t>2021-10-05 14:34:51.850957</t>
         </is>
       </c>
     </row>
@@ -3426,7 +3427,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685542</t>
+          <t>2021-10-05 14:34:51.850959</t>
         </is>
       </c>
     </row>
@@ -3456,7 +3457,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685544</t>
+          <t>2021-10-05 14:34:51.850962</t>
         </is>
       </c>
     </row>
@@ -3486,7 +3487,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685546</t>
+          <t>2021-10-05 14:34:51.850965</t>
         </is>
       </c>
     </row>
@@ -3516,7 +3517,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685549</t>
+          <t>2021-10-05 14:34:51.850968</t>
         </is>
       </c>
     </row>
@@ -3546,7 +3547,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685552</t>
+          <t>2021-10-05 14:34:51.850971</t>
         </is>
       </c>
     </row>
@@ -3576,7 +3577,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685555</t>
+          <t>2021-10-05 14:34:51.850973</t>
         </is>
       </c>
     </row>
@@ -3606,7 +3607,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685558</t>
+          <t>2021-10-05 14:34:51.850976</t>
         </is>
       </c>
     </row>
@@ -3636,7 +3637,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685560</t>
+          <t>2021-10-05 14:34:51.850978</t>
         </is>
       </c>
     </row>
@@ -3666,7 +3667,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685563</t>
+          <t>2021-10-05 14:34:51.850981</t>
         </is>
       </c>
     </row>
@@ -3696,7 +3697,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685566</t>
+          <t>2021-10-05 14:34:51.850983</t>
         </is>
       </c>
     </row>
@@ -3726,7 +3727,7 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685571</t>
+          <t>2021-10-05 14:34:51.850988</t>
         </is>
       </c>
     </row>
@@ -3756,7 +3757,7 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685574</t>
+          <t>2021-10-05 14:34:51.850991</t>
         </is>
       </c>
     </row>
@@ -3786,7 +3787,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685577</t>
+          <t>2021-10-05 14:34:51.850994</t>
         </is>
       </c>
     </row>
@@ -3816,7 +3817,7 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685579</t>
+          <t>2021-10-05 14:34:51.850996</t>
         </is>
       </c>
     </row>
@@ -3846,7 +3847,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685582</t>
+          <t>2021-10-05 14:34:51.850999</t>
         </is>
       </c>
     </row>
@@ -3876,7 +3877,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685585</t>
+          <t>2021-10-05 14:34:51.851001</t>
         </is>
       </c>
     </row>
@@ -3906,7 +3907,7 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685587</t>
+          <t>2021-10-05 14:34:51.851004</t>
         </is>
       </c>
     </row>
@@ -3936,7 +3937,7 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685590</t>
+          <t>2021-10-05 14:34:51.851006</t>
         </is>
       </c>
     </row>
@@ -3966,7 +3967,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685592</t>
+          <t>2021-10-05 14:34:51.851009</t>
         </is>
       </c>
     </row>
@@ -3996,7 +3997,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685595</t>
+          <t>2021-10-05 14:34:51.851011</t>
         </is>
       </c>
     </row>
@@ -4026,7 +4027,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685598</t>
+          <t>2021-10-05 14:34:51.851014</t>
         </is>
       </c>
     </row>
@@ -4056,7 +4057,7 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685600</t>
+          <t>2021-10-05 14:34:51.851016</t>
         </is>
       </c>
     </row>
@@ -4086,7 +4087,7 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685603</t>
+          <t>2021-10-05 14:34:51.851019</t>
         </is>
       </c>
     </row>
@@ -4116,7 +4117,7 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685606</t>
+          <t>2021-10-05 14:34:51.851021</t>
         </is>
       </c>
     </row>
@@ -4146,7 +4147,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685608</t>
+          <t>2021-10-05 14:34:51.851024</t>
         </is>
       </c>
     </row>
@@ -4176,7 +4177,7 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685611</t>
+          <t>2021-10-05 14:34:51.851026</t>
         </is>
       </c>
     </row>
@@ -4206,7 +4207,7 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685613</t>
+          <t>2021-10-05 14:34:51.851029</t>
         </is>
       </c>
     </row>
@@ -4236,7 +4237,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685616</t>
+          <t>2021-10-05 14:34:51.851031</t>
         </is>
       </c>
     </row>
@@ -4266,7 +4267,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685619</t>
+          <t>2021-10-05 14:34:51.851034</t>
         </is>
       </c>
     </row>
@@ -4296,7 +4297,7 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685621</t>
+          <t>2021-10-05 14:34:51.851036</t>
         </is>
       </c>
     </row>
@@ -4326,7 +4327,7 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685626</t>
+          <t>2021-10-05 14:34:51.851041</t>
         </is>
       </c>
     </row>
@@ -4356,7 +4357,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685629</t>
+          <t>2021-10-05 14:34:51.851044</t>
         </is>
       </c>
     </row>
@@ -4386,7 +4387,7 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685632</t>
+          <t>2021-10-05 14:34:51.851046</t>
         </is>
       </c>
     </row>
@@ -4416,7 +4417,7 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685635</t>
+          <t>2021-10-05 14:34:51.851049</t>
         </is>
       </c>
     </row>
@@ -4446,7 +4447,7 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685637</t>
+          <t>2021-10-05 14:34:51.851051</t>
         </is>
       </c>
     </row>
@@ -4476,7 +4477,7 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685640</t>
+          <t>2021-10-05 14:34:51.851054</t>
         </is>
       </c>
     </row>
@@ -4506,7 +4507,7 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685643</t>
+          <t>2021-10-05 14:34:51.851057</t>
         </is>
       </c>
     </row>
@@ -4536,7 +4537,7 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685645</t>
+          <t>2021-10-05 14:34:51.851059</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4567,7 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685648</t>
+          <t>2021-10-05 14:34:51.851062</t>
         </is>
       </c>
     </row>
@@ -4596,7 +4597,7 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685651</t>
+          <t>2021-10-05 14:34:51.851064</t>
         </is>
       </c>
     </row>
@@ -4626,7 +4627,7 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685653</t>
+          <t>2021-10-05 14:34:51.851067</t>
         </is>
       </c>
     </row>
@@ -4656,7 +4657,7 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685656</t>
+          <t>2021-10-05 14:34:51.851069</t>
         </is>
       </c>
     </row>
@@ -4686,7 +4687,7 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685659</t>
+          <t>2021-10-05 14:34:51.851072</t>
         </is>
       </c>
     </row>
@@ -4716,7 +4717,7 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685661</t>
+          <t>2021-10-05 14:34:51.851074</t>
         </is>
       </c>
     </row>
@@ -4746,7 +4747,7 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685664</t>
+          <t>2021-10-05 14:34:51.851077</t>
         </is>
       </c>
     </row>
@@ -4776,7 +4777,7 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685666</t>
+          <t>2021-10-05 14:34:51.851079</t>
         </is>
       </c>
     </row>
@@ -4806,7 +4807,7 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685669</t>
+          <t>2021-10-05 14:34:51.851082</t>
         </is>
       </c>
     </row>
@@ -4836,7 +4837,7 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685672</t>
+          <t>2021-10-05 14:34:51.851084</t>
         </is>
       </c>
     </row>
@@ -4866,7 +4867,7 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685675</t>
+          <t>2021-10-05 14:34:51.851087</t>
         </is>
       </c>
     </row>
@@ -4896,7 +4897,7 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685677</t>
+          <t>2021-10-05 14:34:51.851089</t>
         </is>
       </c>
     </row>
@@ -4926,7 +4927,7 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685680</t>
+          <t>2021-10-05 14:34:51.851092</t>
         </is>
       </c>
     </row>
@@ -4956,7 +4957,7 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685683</t>
+          <t>2021-10-05 14:34:51.851095</t>
         </is>
       </c>
     </row>
@@ -4986,7 +4987,7 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685686</t>
+          <t>2021-10-05 14:34:51.851098</t>
         </is>
       </c>
     </row>
@@ -5016,7 +5017,7 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685688</t>
+          <t>2021-10-05 14:34:51.851100</t>
         </is>
       </c>
     </row>
@@ -5046,7 +5047,7 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685691</t>
+          <t>2021-10-05 14:34:51.851103</t>
         </is>
       </c>
     </row>
@@ -5076,7 +5077,7 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685694</t>
+          <t>2021-10-05 14:34:51.851105</t>
         </is>
       </c>
     </row>
@@ -5106,7 +5107,7 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685696</t>
+          <t>2021-10-05 14:34:51.851108</t>
         </is>
       </c>
     </row>
@@ -5136,7 +5137,7 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685699</t>
+          <t>2021-10-05 14:34:51.851110</t>
         </is>
       </c>
     </row>
@@ -5166,7 +5167,7 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685701</t>
+          <t>2021-10-05 14:34:51.851113</t>
         </is>
       </c>
     </row>
@@ -5196,7 +5197,7 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685704</t>
+          <t>2021-10-05 14:34:51.851115</t>
         </is>
       </c>
     </row>
@@ -5226,7 +5227,7 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685707</t>
+          <t>2021-10-05 14:34:51.851118</t>
         </is>
       </c>
     </row>
@@ -5256,7 +5257,7 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685709</t>
+          <t>2021-10-05 14:34:51.851120</t>
         </is>
       </c>
     </row>
@@ -5286,7 +5287,7 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685712</t>
+          <t>2021-10-05 14:34:51.851123</t>
         </is>
       </c>
     </row>
@@ -5316,7 +5317,7 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685714</t>
+          <t>2021-10-05 14:34:51.851125</t>
         </is>
       </c>
     </row>
@@ -5346,7 +5347,7 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685717</t>
+          <t>2021-10-05 14:34:51.851128</t>
         </is>
       </c>
     </row>
@@ -5376,7 +5377,7 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685719</t>
+          <t>2021-10-05 14:34:51.851130</t>
         </is>
       </c>
     </row>
@@ -5406,7 +5407,7 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685722</t>
+          <t>2021-10-05 14:34:51.851133</t>
         </is>
       </c>
     </row>
@@ -5436,7 +5437,7 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685724</t>
+          <t>2021-10-05 14:34:51.851135</t>
         </is>
       </c>
     </row>
@@ -5466,7 +5467,7 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685727</t>
+          <t>2021-10-05 14:34:51.851138</t>
         </is>
       </c>
     </row>
@@ -5496,7 +5497,7 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685730</t>
+          <t>2021-10-05 14:34:51.851140</t>
         </is>
       </c>
     </row>
@@ -5526,7 +5527,7 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685732</t>
+          <t>2021-10-05 14:34:51.851143</t>
         </is>
       </c>
     </row>
@@ -5556,7 +5557,7 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685735</t>
+          <t>2021-10-05 14:34:51.851145</t>
         </is>
       </c>
     </row>
@@ -5586,7 +5587,7 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685737</t>
+          <t>2021-10-05 14:34:51.851148</t>
         </is>
       </c>
     </row>
@@ -5616,7 +5617,7 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685739</t>
+          <t>2021-10-05 14:34:51.851150</t>
         </is>
       </c>
     </row>
@@ -5646,7 +5647,7 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685744</t>
+          <t>2021-10-05 14:34:51.851154</t>
         </is>
       </c>
     </row>
@@ -5676,7 +5677,7 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685747</t>
+          <t>2021-10-05 14:34:51.851158</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5707,7 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685749</t>
+          <t>2021-10-05 14:34:51.851160</t>
         </is>
       </c>
     </row>
@@ -5736,7 +5737,7 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685752</t>
+          <t>2021-10-05 14:34:51.851163</t>
         </is>
       </c>
     </row>
@@ -5766,7 +5767,7 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685754</t>
+          <t>2021-10-05 14:34:51.851165</t>
         </is>
       </c>
     </row>
@@ -5796,7 +5797,7 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685757</t>
+          <t>2021-10-05 14:34:51.851168</t>
         </is>
       </c>
     </row>
@@ -5826,7 +5827,7 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685759</t>
+          <t>2021-10-05 14:34:51.851170</t>
         </is>
       </c>
     </row>
@@ -5856,7 +5857,7 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685762</t>
+          <t>2021-10-05 14:34:51.851173</t>
         </is>
       </c>
     </row>
@@ -5886,7 +5887,7 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685764</t>
+          <t>2021-10-05 14:34:51.851175</t>
         </is>
       </c>
     </row>
@@ -5916,7 +5917,7 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685767</t>
+          <t>2021-10-05 14:34:51.851178</t>
         </is>
       </c>
     </row>
@@ -5946,7 +5947,7 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685769</t>
+          <t>2021-10-05 14:34:51.851180</t>
         </is>
       </c>
     </row>
@@ -5976,7 +5977,7 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685772</t>
+          <t>2021-10-05 14:34:51.851183</t>
         </is>
       </c>
     </row>
@@ -6006,7 +6007,7 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685774</t>
+          <t>2021-10-05 14:34:51.851185</t>
         </is>
       </c>
     </row>
@@ -6036,7 +6037,7 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685777</t>
+          <t>2021-10-05 14:34:51.851188</t>
         </is>
       </c>
     </row>
@@ -6066,7 +6067,7 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685779</t>
+          <t>2021-10-05 14:34:51.851190</t>
         </is>
       </c>
     </row>
@@ -6096,7 +6097,7 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685782</t>
+          <t>2021-10-05 14:34:51.851193</t>
         </is>
       </c>
     </row>
@@ -6126,7 +6127,7 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685784</t>
+          <t>2021-10-05 14:34:51.851195</t>
         </is>
       </c>
     </row>
@@ -6156,7 +6157,7 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685787</t>
+          <t>2021-10-05 14:34:51.851198</t>
         </is>
       </c>
     </row>
@@ -6186,7 +6187,7 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685789</t>
+          <t>2021-10-05 14:34:51.851200</t>
         </is>
       </c>
     </row>
@@ -6216,7 +6217,7 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685792</t>
+          <t>2021-10-05 14:34:51.851203</t>
         </is>
       </c>
     </row>
@@ -6246,7 +6247,7 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685794</t>
+          <t>2021-10-05 14:34:51.851205</t>
         </is>
       </c>
     </row>
@@ -6276,7 +6277,7 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685797</t>
+          <t>2021-10-05 14:34:51.851208</t>
         </is>
       </c>
     </row>
@@ -6306,7 +6307,7 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685799</t>
+          <t>2021-10-05 14:34:51.851210</t>
         </is>
       </c>
     </row>
@@ -6336,7 +6337,7 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685802</t>
+          <t>2021-10-05 14:34:51.851213</t>
         </is>
       </c>
     </row>
@@ -6366,7 +6367,7 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685804</t>
+          <t>2021-10-05 14:34:51.851215</t>
         </is>
       </c>
     </row>
@@ -6396,7 +6397,7 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685807</t>
+          <t>2021-10-05 14:34:51.851218</t>
         </is>
       </c>
     </row>
@@ -6426,7 +6427,7 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685809</t>
+          <t>2021-10-05 14:34:51.851220</t>
         </is>
       </c>
     </row>
@@ -6456,7 +6457,7 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685812</t>
+          <t>2021-10-05 14:34:51.851223</t>
         </is>
       </c>
     </row>
@@ -6486,7 +6487,7 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685814</t>
+          <t>2021-10-05 14:34:51.851226</t>
         </is>
       </c>
     </row>
@@ -6516,7 +6517,7 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685817</t>
+          <t>2021-10-05 14:34:51.851228</t>
         </is>
       </c>
     </row>
@@ -6546,7 +6547,7 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685820</t>
+          <t>2021-10-05 14:34:51.851231</t>
         </is>
       </c>
     </row>
@@ -6576,7 +6577,7 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685822</t>
+          <t>2021-10-05 14:34:51.851233</t>
         </is>
       </c>
     </row>
@@ -6606,7 +6607,7 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685825</t>
+          <t>2021-10-05 14:34:51.851236</t>
         </is>
       </c>
     </row>
@@ -6636,7 +6637,7 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685827</t>
+          <t>2021-10-05 14:34:51.851239</t>
         </is>
       </c>
     </row>
@@ -6666,7 +6667,7 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685830</t>
+          <t>2021-10-05 14:34:51.851241</t>
         </is>
       </c>
     </row>
@@ -6696,7 +6697,7 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685832</t>
+          <t>2021-10-05 14:34:51.851244</t>
         </is>
       </c>
     </row>
@@ -6726,7 +6727,7 @@
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685834</t>
+          <t>2021-10-05 14:34:51.851246</t>
         </is>
       </c>
     </row>
@@ -6756,7 +6757,7 @@
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685837</t>
+          <t>2021-10-05 14:34:51.851249</t>
         </is>
       </c>
     </row>
@@ -6786,7 +6787,7 @@
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685840</t>
+          <t>2021-10-05 14:34:51.851251</t>
         </is>
       </c>
     </row>
@@ -6816,7 +6817,7 @@
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685842</t>
+          <t>2021-10-05 14:34:51.851254</t>
         </is>
       </c>
     </row>
@@ -6846,7 +6847,7 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685845</t>
+          <t>2021-10-05 14:34:51.851257</t>
         </is>
       </c>
     </row>
@@ -6876,7 +6877,7 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685847</t>
+          <t>2021-10-05 14:34:51.851259</t>
         </is>
       </c>
     </row>
@@ -6906,7 +6907,7 @@
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685850</t>
+          <t>2021-10-05 14:34:51.851262</t>
         </is>
       </c>
     </row>
@@ -6936,7 +6937,7 @@
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685852</t>
+          <t>2021-10-05 14:34:51.851264</t>
         </is>
       </c>
     </row>
@@ -6966,7 +6967,7 @@
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685855</t>
+          <t>2021-10-05 14:34:51.851267</t>
         </is>
       </c>
     </row>
@@ -6996,7 +6997,7 @@
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685858</t>
+          <t>2021-10-05 14:34:51.851269</t>
         </is>
       </c>
     </row>
@@ -7026,7 +7027,7 @@
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685860</t>
+          <t>2021-10-05 14:34:51.851271</t>
         </is>
       </c>
     </row>
@@ -7056,7 +7057,7 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685863</t>
+          <t>2021-10-05 14:34:51.851274</t>
         </is>
       </c>
     </row>
@@ -7086,7 +7087,7 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685866</t>
+          <t>2021-10-05 14:34:51.851276</t>
         </is>
       </c>
     </row>
@@ -7116,7 +7117,7 @@
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685868</t>
+          <t>2021-10-05 14:34:51.851279</t>
         </is>
       </c>
     </row>
@@ -7146,7 +7147,7 @@
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685871</t>
+          <t>2021-10-05 14:34:51.851282</t>
         </is>
       </c>
     </row>
@@ -7176,7 +7177,7 @@
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685874</t>
+          <t>2021-10-05 14:34:51.851284</t>
         </is>
       </c>
     </row>
@@ -7206,7 +7207,7 @@
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685876</t>
+          <t>2021-10-05 14:34:51.851287</t>
         </is>
       </c>
     </row>
@@ -7236,7 +7237,7 @@
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685879</t>
+          <t>2021-10-05 14:34:51.851289</t>
         </is>
       </c>
     </row>
@@ -7266,7 +7267,7 @@
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685881</t>
+          <t>2021-10-05 14:34:51.851292</t>
         </is>
       </c>
     </row>
@@ -7296,7 +7297,7 @@
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685884</t>
+          <t>2021-10-05 14:34:51.851294</t>
         </is>
       </c>
     </row>
@@ -7326,7 +7327,7 @@
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685886</t>
+          <t>2021-10-05 14:34:51.851297</t>
         </is>
       </c>
     </row>
@@ -7356,7 +7357,7 @@
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685889</t>
+          <t>2021-10-05 14:34:51.851299</t>
         </is>
       </c>
     </row>
@@ -7386,7 +7387,7 @@
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685892</t>
+          <t>2021-10-05 14:34:51.851302</t>
         </is>
       </c>
     </row>
@@ -7416,7 +7417,7 @@
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685894</t>
+          <t>2021-10-05 14:34:51.851304</t>
         </is>
       </c>
     </row>
@@ -7446,7 +7447,7 @@
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685898</t>
+          <t>2021-10-05 14:34:51.851308</t>
         </is>
       </c>
     </row>
@@ -7476,7 +7477,7 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685901</t>
+          <t>2021-10-05 14:34:51.851311</t>
         </is>
       </c>
     </row>
@@ -7506,7 +7507,7 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685904</t>
+          <t>2021-10-05 14:34:51.851314</t>
         </is>
       </c>
     </row>
@@ -7536,7 +7537,7 @@
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685907</t>
+          <t>2021-10-05 14:34:51.851316</t>
         </is>
       </c>
     </row>
@@ -7566,7 +7567,7 @@
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685909</t>
+          <t>2021-10-05 14:34:51.851319</t>
         </is>
       </c>
     </row>
@@ -7596,7 +7597,7 @@
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685912</t>
+          <t>2021-10-05 14:34:51.851321</t>
         </is>
       </c>
     </row>
@@ -7626,7 +7627,7 @@
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685915</t>
+          <t>2021-10-05 14:34:51.851324</t>
         </is>
       </c>
     </row>
@@ -7656,7 +7657,7 @@
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685917</t>
+          <t>2021-10-05 14:34:51.851327</t>
         </is>
       </c>
     </row>
@@ -7686,7 +7687,7 @@
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685920</t>
+          <t>2021-10-05 14:34:51.851329</t>
         </is>
       </c>
     </row>
@@ -7716,7 +7717,7 @@
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685923</t>
+          <t>2021-10-05 14:34:51.851332</t>
         </is>
       </c>
     </row>
@@ -7746,7 +7747,7 @@
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685925</t>
+          <t>2021-10-05 14:34:51.851334</t>
         </is>
       </c>
     </row>
@@ -7776,7 +7777,7 @@
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685928</t>
+          <t>2021-10-05 14:34:51.851337</t>
         </is>
       </c>
     </row>
@@ -7806,7 +7807,7 @@
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685931</t>
+          <t>2021-10-05 14:34:51.851339</t>
         </is>
       </c>
     </row>
@@ -7836,7 +7837,7 @@
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685933</t>
+          <t>2021-10-05 14:34:51.851342</t>
         </is>
       </c>
     </row>
@@ -7866,7 +7867,7 @@
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685936</t>
+          <t>2021-10-05 14:34:51.851344</t>
         </is>
       </c>
     </row>
@@ -7896,7 +7897,7 @@
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685938</t>
+          <t>2021-10-05 14:34:51.851347</t>
         </is>
       </c>
     </row>
@@ -7926,7 +7927,7 @@
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685941</t>
+          <t>2021-10-05 14:34:51.851349</t>
         </is>
       </c>
     </row>
@@ -7956,7 +7957,7 @@
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685944</t>
+          <t>2021-10-05 14:34:51.851352</t>
         </is>
       </c>
     </row>
@@ -7986,7 +7987,7 @@
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685946</t>
+          <t>2021-10-05 14:34:51.851354</t>
         </is>
       </c>
     </row>
@@ -8016,7 +8017,7 @@
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685949</t>
+          <t>2021-10-05 14:34:51.851357</t>
         </is>
       </c>
     </row>
@@ -8046,7 +8047,7 @@
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685951</t>
+          <t>2021-10-05 14:34:51.851359</t>
         </is>
       </c>
     </row>
@@ -8076,7 +8077,7 @@
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685954</t>
+          <t>2021-10-05 14:34:51.851362</t>
         </is>
       </c>
     </row>
@@ -8106,7 +8107,7 @@
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685957</t>
+          <t>2021-10-05 14:34:51.851365</t>
         </is>
       </c>
     </row>
@@ -8136,7 +8137,7 @@
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685959</t>
+          <t>2021-10-05 14:34:51.851367</t>
         </is>
       </c>
     </row>
@@ -8166,7 +8167,7 @@
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685962</t>
+          <t>2021-10-05 14:34:51.851370</t>
         </is>
       </c>
     </row>
@@ -8196,7 +8197,7 @@
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685964</t>
+          <t>2021-10-05 14:34:51.851372</t>
         </is>
       </c>
     </row>
@@ -8226,7 +8227,7 @@
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685967</t>
+          <t>2021-10-05 14:34:51.851375</t>
         </is>
       </c>
     </row>
@@ -8256,7 +8257,91 @@
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:50.685970</t>
+          <t>2021-10-05 14:34:51.851378</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>data_name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>data_id</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>data_version</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>data_version_created</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>panel_query_time</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>panel_get_request</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Microcephaly</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>138</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2021-10-04T06:38:26.190706Z</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2021-10-05 14:34:51.847356</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>https://panelapp.agha.umccr.org/api/v1/panels/138/?format=json</t>
         </is>
       </c>
     </row>
